--- a/Global indicators paper - decadal means.xlsx
+++ b/Global indicators paper - decadal means.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blair\Documents\Work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bom365-my.sharepoint.com/personal/blair_trewin_bom_gov_au/Documents/Documents/Papers and conferences/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3836727-AEF6-49A3-9438-2A53E11C96B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{9F5D3C84-FDC3-4D9C-A37D-5465B529320D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0C70966-18C1-4EB0-8443-311399F5225D}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="17700" windowHeight="10005" xr2:uid="{A467D435-0E52-4B0D-BB00-61C4E19D27C6}"/>
+    <workbookView xWindow="27930" yWindow="2085" windowWidth="18900" windowHeight="10920" xr2:uid="{A467D435-0E52-4B0D-BB00-61C4E19D27C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="2" r:id="rId1"/>
@@ -123,10 +123,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$173</c:f>
+              <c:f>Sheet1!$B$1:$B$174</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>1850.5</c:v>
                 </c:pt>
@@ -645,507 +645,513 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>2022.5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2023.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$1:$C$168</c:f>
+              <c:f>Sheet1!$C$1:$C$169</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="168"/>
+                <c:ptCount val="169"/>
                 <c:pt idx="4">
-                  <c:v>8.1127450980392028E-3</c:v>
+                  <c:v>1.6553921568627471E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.6127450980392032E-3</c:v>
+                  <c:v>1.6553921568627478E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.6372549019607956E-3</c:v>
+                  <c:v>5.3921568627471329E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.1887254901960795E-2</c:v>
+                  <c:v>-2.7196078431372527E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.7137254901960799E-2</c:v>
+                  <c:v>-3.4446078431372526E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-4.6887254901960794E-2</c:v>
+                  <c:v>-4.644607843137253E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-4.8887254901960803E-2</c:v>
+                  <c:v>-4.8696078431372525E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-3.9887254901960795E-2</c:v>
+                  <c:v>-4.2446078431372526E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.1137254901960795E-2</c:v>
+                  <c:v>-2.6446078431372522E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-1.1887254901960801E-2</c:v>
+                  <c:v>-1.7946078431372522E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-1.2637254901960793E-2</c:v>
+                  <c:v>-1.8196078431372532E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.8872549019607966E-3</c:v>
+                  <c:v>-1.0446078431372527E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8627450980392025E-3</c:v>
+                  <c:v>-1.9607843137252752E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.2112745098039205E-2</c:v>
+                  <c:v>1.9553921568627473E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.41127450980392E-2</c:v>
+                  <c:v>2.3053921568627476E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.7112745098039202E-2</c:v>
+                  <c:v>2.6553921568627469E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.3112745098039206E-2</c:v>
+                  <c:v>2.1803921568627475E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3862745098039203E-2</c:v>
+                  <c:v>1.2303921568627474E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.6362745098039204E-2</c:v>
+                  <c:v>3.7053921568627475E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.33627450980392E-2</c:v>
+                  <c:v>6.5553921568627466E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.5362745098039202E-2</c:v>
+                  <c:v>6.5803921568627466E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.6362745098039189E-2</c:v>
+                  <c:v>6.7053921568627467E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>7.8112745098039199E-2</c:v>
+                  <c:v>7.9803921568627451E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.1612745098039202E-2</c:v>
+                  <c:v>8.2803921568627453E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.96127450980392E-2</c:v>
+                  <c:v>8.1803921568627452E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.786274509803919E-2</c:v>
+                  <c:v>7.1053921568627471E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.4862745098039199E-2</c:v>
+                  <c:v>5.9553921568627474E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.8112745098039207E-2</c:v>
+                  <c:v>5.2803921568627489E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.1127450980392001E-3</c:v>
+                  <c:v>6.5539215686274853E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-2.9387254901960803E-2</c:v>
+                  <c:v>-2.6696078431372526E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>-2.5637254901960803E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-4.2387254901960804E-2</c:v>
+                  <c:v>-3.9696078431372524E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-5.6887254901960803E-2</c:v>
+                  <c:v>-5.6196078431372531E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-7.4887254901960798E-2</c:v>
+                  <c:v>-7.3196078431372519E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-8.6387254901960794E-2</c:v>
+                  <c:v>-8.569607843137253E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-8.2887254901960805E-2</c:v>
+                  <c:v>-8.5446078431372516E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-7.4637254901960798E-2</c:v>
+                  <c:v>-7.8946078431372524E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-5.4137254901960793E-2</c:v>
+                  <c:v>-5.9196078431372534E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-2.7887254901960794E-2</c:v>
+                  <c:v>-3.2696078431372524E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-3.78872549019608E-2</c:v>
+                  <c:v>-4.5196078431372529E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-4.7637254901960795E-2</c:v>
+                  <c:v>-5.5696078431372552E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-2.1387254901960799E-2</c:v>
+                  <c:v>-2.7446078431372527E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-1.08872549019608E-2</c:v>
+                  <c:v>-1.5946078431372527E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-5.8872549019608035E-3</c:v>
+                  <c:v>-1.0696078431372526E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-1.0637254901960803E-2</c:v>
+                  <c:v>-1.6196078431372531E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-2.4387254901960802E-2</c:v>
+                  <c:v>-2.7196078431372527E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-2.3887254901960801E-2</c:v>
+                  <c:v>-2.6446078431372526E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-3.0137254901960803E-2</c:v>
+                  <c:v>-3.0696078431372526E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-5.2637254901960792E-2</c:v>
+                  <c:v>-5.3196078431372529E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-5.8387254901960797E-2</c:v>
+                  <c:v>-5.869607843137252E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-8.1887254901960818E-2</c:v>
+                  <c:v>-8.2196078431372527E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-0.11263725490196082</c:v>
+                  <c:v>-0.11294607843137253</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-0.1396372549019608</c:v>
+                  <c:v>-0.13994607843137252</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.14563725490196081</c:v>
+                  <c:v>-0.14619607843137253</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.14063725490196083</c:v>
+                  <c:v>-0.13994607843137249</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.1091372549019608</c:v>
+                  <c:v>-0.10819607843137251</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-9.0387254901960798E-2</c:v>
+                  <c:v>-8.8696078431372533E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.10138725490196081</c:v>
+                  <c:v>-9.9946078431372515E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.10938725490196081</c:v>
+                  <c:v>-0.10719607843137251</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-9.8637254901960819E-2</c:v>
+                  <c:v>-9.6696078431372526E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-7.71372549019608E-2</c:v>
+                  <c:v>-7.4946078431372534E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-5.5137254901960794E-2</c:v>
+                  <c:v>-5.2696078431372528E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.7137254901960804E-2</c:v>
+                  <c:v>-2.4946078431372531E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-1.4637254901960805E-2</c:v>
+                  <c:v>-1.2196078431372524E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-1.1372549019608047E-3</c:v>
+                  <c:v>1.0539215686274743E-3</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-6.6372549019608051E-3</c:v>
+                  <c:v>-4.6960784313725256E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-1.4387254901960805E-2</c:v>
+                  <c:v>-1.2696078431372531E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3362745098039197E-2</c:v>
+                  <c:v>1.4553921568627471E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>4.3612745098039196E-2</c:v>
+                  <c:v>4.4803921568627475E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.9862745098039197E-2</c:v>
+                  <c:v>6.2053921568627469E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.3612745098039191E-2</c:v>
+                  <c:v>5.5553921568627485E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.4612745098039201E-2</c:v>
+                  <c:v>6.580392156862748E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7.7612745098039199E-2</c:v>
+                  <c:v>7.9053921568627478E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>9.43627450980392E-2</c:v>
+                  <c:v>9.5303921568627464E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>9.2112745098039212E-2</c:v>
+                  <c:v>9.3053921568627476E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.10436274509803919</c:v>
+                  <c:v>0.10530392156862749</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.10786274509803921</c:v>
+                  <c:v>0.10855392156862746</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.10286274509803921</c:v>
+                  <c:v>0.10380392156862747</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.1233627450980392</c:v>
+                  <c:v>0.12355392156862748</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.14261274509803917</c:v>
+                  <c:v>0.14205392156862745</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.1768627450980392</c:v>
+                  <c:v>0.17630392156862745</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.2008627450980392</c:v>
+                  <c:v>0.2000539215686275</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.21661274509803916</c:v>
+                  <c:v>0.21555392156862746</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.23336274509803917</c:v>
+                  <c:v>0.23255392156862742</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.26936274509803926</c:v>
+                  <c:v>0.26780392156862742</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.3031127450980392</c:v>
+                  <c:v>0.30105392156862748</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.32911274509803917</c:v>
+                  <c:v>0.3275539215686275</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.33511274509803918</c:v>
+                  <c:v>0.33330392156862743</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.33061274509803923</c:v>
+                  <c:v>0.32905392156862745</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.32036274509803925</c:v>
+                  <c:v>0.3190539215686275</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.31061274509803927</c:v>
+                  <c:v>0.30905392156862749</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.28261274509803919</c:v>
+                  <c:v>0.28080392156862749</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.2718627450980392</c:v>
+                  <c:v>0.26955392156862745</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.27261274509803923</c:v>
+                  <c:v>0.26980392156862754</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.27711274509803918</c:v>
+                  <c:v>0.27430392156862748</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.24936274509803918</c:v>
+                  <c:v>0.24630392156862749</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.22811274509803922</c:v>
+                  <c:v>0.2248039215686275</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.21586274509803921</c:v>
+                  <c:v>0.21255392156862749</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.22161274509803919</c:v>
+                  <c:v>0.21830392156862746</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.23436274509803917</c:v>
+                  <c:v>0.23130392156862745</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.24561274509803921</c:v>
+                  <c:v>0.24280392156862746</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.25936274509803919</c:v>
+                  <c:v>0.25630392156862747</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.26511274509803917</c:v>
+                  <c:v>0.2625539215686275</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.25861274509803922</c:v>
+                  <c:v>0.2565539215686275</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.24936274509803918</c:v>
+                  <c:v>0.24730392156862746</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.2341127450980392</c:v>
+                  <c:v>0.23205392156862747</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.23561274509803914</c:v>
+                  <c:v>0.2330539215686275</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.24861274509803916</c:v>
+                  <c:v>0.24555392156862749</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.24236274509803915</c:v>
+                  <c:v>0.23905392156862751</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.22836274509803917</c:v>
+                  <c:v>0.2250539215686275</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.2311127450980392</c:v>
+                  <c:v>0.22755392156862747</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.23461274509803917</c:v>
+                  <c:v>0.23155392156862745</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.21886274509803916</c:v>
+                  <c:v>0.21555392156862746</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.21786274509803921</c:v>
+                  <c:v>0.21505392156862752</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.22811274509803922</c:v>
+                  <c:v>0.22555392156862747</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.24136274509803926</c:v>
+                  <c:v>0.23930392156862745</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.25011274509803921</c:v>
+                  <c:v>0.24805392156862743</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.24436274509803924</c:v>
+                  <c:v>0.24205392156862748</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.2658627450980392</c:v>
+                  <c:v>0.26380392156862753</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.28361274509803924</c:v>
+                  <c:v>0.28105392156862752</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.29536274509803923</c:v>
+                  <c:v>0.2923039215686275</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.32186274509803925</c:v>
+                  <c:v>0.31930392156862752</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.36586274509803929</c:v>
+                  <c:v>0.36330392156862745</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.37936274509803919</c:v>
+                  <c:v>0.37555392156862744</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.39561274509803923</c:v>
+                  <c:v>0.39205392156862745</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.41836274509803922</c:v>
+                  <c:v>0.41455392156862747</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.43386274509803913</c:v>
+                  <c:v>0.43005392156862737</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.46361274509803918</c:v>
+                  <c:v>0.46055392156862746</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.47611274509803919</c:v>
+                  <c:v>0.47330392156862749</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.50436274509803913</c:v>
+                  <c:v>0.50155392156862744</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.51336274509803914</c:v>
+                  <c:v>0.51055392156862744</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.52911274509803918</c:v>
+                  <c:v>0.52580392156862754</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.53736274509803927</c:v>
+                  <c:v>0.53405392156862752</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.54536274509803917</c:v>
+                  <c:v>0.54280392156862756</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.54086274509803922</c:v>
+                  <c:v>0.5383039215686275</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.5581127450980391</c:v>
+                  <c:v>0.55580392156862746</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.59136274509803921</c:v>
+                  <c:v>0.58930392156862754</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.60836274509803911</c:v>
+                  <c:v>0.60605392156862747</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.62661274509803921</c:v>
+                  <c:v>0.62380392156862752</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.65386274509803921</c:v>
+                  <c:v>0.65155392156862757</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.6681127450980392</c:v>
+                  <c:v>0.66605392156862753</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.66561274509803925</c:v>
+                  <c:v>0.66330392156862739</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.67961274509803915</c:v>
+                  <c:v>0.67705392156862743</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.72111274509803913</c:v>
+                  <c:v>0.71830392156862755</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.75686274509803908</c:v>
+                  <c:v>0.75405392156862749</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.77961274509803913</c:v>
+                  <c:v>0.7770539215686274</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.80211274509803909</c:v>
+                  <c:v>0.79930392156862751</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.83111274509803912</c:v>
+                  <c:v>0.82830392156862742</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.84736274509803911</c:v>
+                  <c:v>0.84455392156862741</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.83686274509803926</c:v>
+                  <c:v>0.83380392156862759</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.86336274509803912</c:v>
+                  <c:v>0.86055392156862764</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.89636274509803915</c:v>
+                  <c:v>0.89405392156862751</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.90311274509803907</c:v>
+                  <c:v>0.90080392156862743</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.90536274509803916</c:v>
+                  <c:v>0.90305392156862729</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.91086274509803911</c:v>
+                  <c:v>0.90855392156862735</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.93136274509803929</c:v>
+                  <c:v>0.92830392156862751</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.95161274509803939</c:v>
+                  <c:v>0.94880392156862747</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.98811274509803915</c:v>
+                  <c:v>0.98505392156862759</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>1.0138627450980393</c:v>
+                  <c:v>1.0108039215686273</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1.0441127450980392</c:v>
+                  <c:v>1.0413039215686273</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1.0741127450980392</c:v>
+                  <c:v>1.0713039215686275</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.1003627450980391</c:v>
+                  <c:v>1.0970539215686277</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.1223627450980393</c:v>
+                  <c:v>1.1195539215686274</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1.1463627450980391</c:v>
+                  <c:v>1.1433039215686276</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.1925539215686274</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1197,10 +1203,10 @@
           </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$1:$A$173</c:f>
+              <c:f>Sheet1!$A$1:$A$174</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
                   <c:v>1850</c:v>
                 </c:pt>
@@ -1719,534 +1725,540 @@
                 </c:pt>
                 <c:pt idx="172">
                   <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>2023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$1:$D$173</c:f>
+              <c:f>Sheet1!$D$1:$D$174</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="173"/>
+                <c:ptCount val="174"/>
                 <c:pt idx="0">
-                  <c:v>-5.3137254901960793E-2</c:v>
+                  <c:v>-6.0196078431372521E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.6862745098039201E-2</c:v>
+                  <c:v>5.7303921568627479E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4362745098039205E-2</c:v>
+                  <c:v>9.4803921568627464E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9362745098039201E-2</c:v>
+                  <c:v>5.2303921568627482E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9362745098039201E-2</c:v>
+                  <c:v>6.2303921568627477E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4362745098039206E-2</c:v>
+                  <c:v>5.9803921568627474E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.5637254901960786E-2</c:v>
+                  <c:v>-2.0196078431372527E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.14313725490196078</c:v>
+                  <c:v>-0.12269607843137252</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.8137254901960807E-2</c:v>
+                  <c:v>-3.0196078431372522E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6.6862745098039189E-2</c:v>
+                  <c:v>7.2303921568627458E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-5.8137254901960811E-2</c:v>
+                  <c:v>-6.0196078431372535E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-9.5637254901960789E-2</c:v>
+                  <c:v>-0.10769607843137252</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.15813725490196079</c:v>
+                  <c:v>-0.17769607843137253</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-3.1372549019608037E-3</c:v>
+                  <c:v>-2.0196078431372541E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-4.8137254901960802E-2</c:v>
+                  <c:v>-5.7696078431372519E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4362745098039202E-2</c:v>
+                  <c:v>3.7303921568627468E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.4362745098039204E-2</c:v>
+                  <c:v>4.230392156862748E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4362745098039211E-2</c:v>
+                  <c:v>3.7303921568627482E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.4362745098039199E-2</c:v>
+                  <c:v>5.4803921568627477E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.9362745098039203E-2</c:v>
+                  <c:v>6.9803921568627469E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.9362745098039202E-2</c:v>
+                  <c:v>1.7303921568627478E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-8.1372549019607943E-3</c:v>
+                  <c:v>-5.1960784313725278E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.4362745098039193E-2</c:v>
+                  <c:v>1.9803921568627467E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.68627450980392E-2</c:v>
+                  <c:v>1.4803921568627476E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-1.8137254901960803E-2</c:v>
+                  <c:v>-2.2696078431372529E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-5.6372549019608059E-3</c:v>
+                  <c:v>-1.0196078431372532E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-4.8137254901960802E-2</c:v>
+                  <c:v>-5.2696078431372528E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.2693627450980392</c:v>
+                  <c:v>0.28480392156862744</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.3243627450980392</c:v>
+                  <c:v>0.33980392156862749</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.93627450980392E-2</c:v>
+                  <c:v>7.2303921568627472E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9362745098039197E-2</c:v>
+                  <c:v>2.9803921568627476E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.1093627450980392</c:v>
+                  <c:v>0.12230392156862746</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.9362745098039203E-2</c:v>
+                  <c:v>4.9803921568627472E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-3.1372549019608037E-3</c:v>
+                  <c:v>4.8039215686274811E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-0.1356372549019608</c:v>
+                  <c:v>-0.13019607843137251</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-0.1356372549019608</c:v>
+                  <c:v>-0.12519607843137251</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-0.11563725490196079</c:v>
+                  <c:v>-0.12019607843137252</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-0.1706372549019608</c:v>
+                  <c:v>-0.17769607843137253</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-1.0637254901960796E-2</c:v>
+                  <c:v>7.3039215686274833E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.11686274509803921</c:v>
+                  <c:v>0.12480392156862749</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-0.1381372549019608</c:v>
+                  <c:v>-0.15269607843137253</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-3.5637254901960805E-2</c:v>
+                  <c:v>-4.2696078431372533E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-0.1206372549019608</c:v>
+                  <c:v>-0.12019607843137252</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-0.11813725490196079</c:v>
+                  <c:v>-0.12019607843137252</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-0.10063725490196081</c:v>
+                  <c:v>-0.12769607843137254</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-5.3137254901960793E-2</c:v>
+                  <c:v>-6.0196078431372521E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>8.9362745098039195E-2</c:v>
+                  <c:v>7.7303921568627476E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>9.1862745098039197E-2</c:v>
+                  <c:v>8.7303921568627471E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-0.11063725490196082</c:v>
+                  <c:v>-0.11769607843137254</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.9362745098039209E-2</c:v>
+                  <c:v>1.9803921568627474E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.12436274509803918</c:v>
+                  <c:v>0.12980392156862747</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6.9362745098039205E-2</c:v>
+                  <c:v>7.2303921568627499E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-7.0637254901960808E-2</c:v>
+                  <c:v>-6.7696078431372528E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-0.16563725490196082</c:v>
+                  <c:v>-0.17519607843137255</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-0.23813725490196078</c:v>
+                  <c:v>-0.2376960784313725</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-4.8137254901960802E-2</c:v>
+                  <c:v>-5.2696078431372528E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.6862745098039195E-2</c:v>
+                  <c:v>3.480392156862748E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-0.13313725490196079</c:v>
+                  <c:v>-0.13769607843137252</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-0.1681372549019608</c:v>
+                  <c:v>-0.17269607843137252</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-0.21563725490196081</c:v>
+                  <c:v>-0.21519607843137253</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-0.18313725490196081</c:v>
+                  <c:v>-0.17769607843137253</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-0.2006372549019608</c:v>
+                  <c:v>-0.19769607843137252</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-0.13063725490196082</c:v>
+                  <c:v>-0.13019607843137254</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-0.11563725490196079</c:v>
+                  <c:v>-0.11269607843137251</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>7.6862745098039184E-2</c:v>
+                  <c:v>7.9803921568627464E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.1393627450980392</c:v>
+                  <c:v>0.14230392156862748</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-8.3137254901960791E-2</c:v>
+                  <c:v>-7.7696078431372509E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-0.21313725490196084</c:v>
+                  <c:v>-0.21019607843137256</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-6.0637254901960785E-2</c:v>
+                  <c:v>-6.7696078431372514E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-6.3725490196081536E-4</c:v>
+                  <c:v>2.303921568627465E-3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.6862745098039183E-2</c:v>
+                  <c:v>4.4803921568627468E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.9362745098039214E-2</c:v>
+                  <c:v>7.9803921568627492E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-5.6372549019608198E-3</c:v>
+                  <c:v>-2.6960784313725394E-3</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9362745098039189E-2</c:v>
+                  <c:v>1.980392156862746E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.1862745098039191E-2</c:v>
+                  <c:v>2.2303921568627469E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.1862745098039192E-2</c:v>
+                  <c:v>6.2303921568627463E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.19436274509803919</c:v>
+                  <c:v>0.19480392156862747</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.9362745098039209E-2</c:v>
+                  <c:v>9.2303921568627489E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.10186274509803921</c:v>
+                  <c:v>0.10480392156862747</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-6.3137254901960801E-2</c:v>
+                  <c:v>-6.2696078431372537E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.1468627450980392</c:v>
+                  <c:v>0.14730392156862748</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.2093627450980392</c:v>
+                  <c:v>0.21230392156862748</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.16186274509803922</c:v>
+                  <c:v>0.15980392156862747</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>-3.1372549019608037E-3</c:v>
+                  <c:v>-2.6960784313725256E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.1443627450980392</c:v>
+                  <c:v>0.14480392156862748</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.6862745098039202E-2</c:v>
+                  <c:v>9.4803921568627478E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.1443627450980392</c:v>
+                  <c:v>0.14730392156862748</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.29436274509803917</c:v>
+                  <c:v>0.28980392156862744</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.29436274509803917</c:v>
+                  <c:v>0.2898039215686275</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.27936274509803921</c:v>
+                  <c:v>0.27980392156862749</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.3868627450980392</c:v>
+                  <c:v>0.38480392156862747</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.36686274509803918</c:v>
+                  <c:v>0.36730392156862746</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.3293627450980392</c:v>
+                  <c:v>0.32980392156862748</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.35686274509803922</c:v>
+                  <c:v>0.34980392156862744</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.48186274509803928</c:v>
+                  <c:v>0.47730392156862744</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.35686274509803917</c:v>
+                  <c:v>0.35980392156862745</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.2043627450980392</c:v>
+                  <c:v>0.20480392156862745</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.24936274509803921</c:v>
+                  <c:v>0.24730392156862749</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.19186274509803922</c:v>
+                  <c:v>0.18980392156862749</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.18186274509803921</c:v>
+                  <c:v>0.17980392156862748</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.1068627450980392</c:v>
+                  <c:v>0.10230392156862747</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.25936274509803919</c:v>
+                  <c:v>0.25480392156862747</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.33686274509803921</c:v>
+                  <c:v>0.33230392156862748</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.40186274509803921</c:v>
+                  <c:v>0.39480392156862748</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.2043627450980392</c:v>
+                  <c:v>0.19730392156862747</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.1443627450980392</c:v>
+                  <c:v>0.14480392156862748</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>8.1862745098039202E-2</c:v>
+                  <c:v>8.2303921568627481E-2</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.30686274509803918</c:v>
+                  <c:v>0.30480392156862746</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.31936274509803919</c:v>
+                  <c:v>0.31980392156862747</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.29436274509803917</c:v>
+                  <c:v>0.2948039215686275</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.24436274509803921</c:v>
+                  <c:v>0.23730392156862748</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.31686274509803919</c:v>
+                  <c:v>0.31730392156862747</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.27186274509803915</c:v>
+                  <c:v>0.27230392156862748</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.30936274509803918</c:v>
+                  <c:v>0.30230392156862751</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>5.1862745098039204E-2</c:v>
+                  <c:v>4.4803921568627489E-2</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.15936274509803922</c:v>
+                  <c:v>0.15480392156862749</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.21186274509803921</c:v>
+                  <c:v>0.20730392156862745</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.24436274509803921</c:v>
+                  <c:v>0.23980392156862748</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.17936274509803918</c:v>
+                  <c:v>0.17980392156862748</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>0.32186274509803919</c:v>
+                  <c:v>0.31980392156862747</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>0.27936274509803921</c:v>
+                  <c:v>0.27730392156862749</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>0.15936274509803922</c:v>
+                  <c:v>0.15730392156862749</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>0.2618627450980392</c:v>
+                  <c:v>0.26730392156862748</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>0.41186274509803922</c:v>
+                  <c:v>0.40730392156862749</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>0.18436274509803918</c:v>
+                  <c:v>0.18230392156862749</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>0.24686274509803921</c:v>
+                  <c:v>0.24230392156862748</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>0.15436274509803918</c:v>
+                  <c:v>0.14730392156862748</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>0.4593627450980392</c:v>
+                  <c:v>0.45730392156862743</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>0.35686274509803922</c:v>
+                  <c:v>0.35230392156862744</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.43936274509803924</c:v>
+                  <c:v>0.43230392156862751</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.54436274509803917</c:v>
+                  <c:v>0.5473039215686275</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.59936274509803922</c:v>
+                  <c:v>0.59730392156862744</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.3968627450980392</c:v>
+                  <c:v>0.38980392156862748</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.5743627450980392</c:v>
+                  <c:v>0.57230392156862742</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.41186274509803922</c:v>
+                  <c:v>0.40730392156862749</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.40186274509803921</c:v>
+                  <c:v>0.39730392156862748</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.45186274509803914</c:v>
+                  <c:v>0.45230392156862742</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.5843627450980392</c:v>
+                  <c:v>0.58480392156862737</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.63936274509803925</c:v>
+                  <c:v>0.63480392156862742</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.52936274509803916</c:v>
+                  <c:v>0.52230392156862748</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.70186274509803925</c:v>
+                  <c:v>0.69980392156862747</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.68186274509803924</c:v>
+                  <c:v>0.67980392156862757</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.47686274509803916</c:v>
+                  <c:v>0.47730392156862744</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.52936274509803916</c:v>
+                  <c:v>0.52730392156862749</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.5843627450980392</c:v>
+                  <c:v>0.58230392156862743</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.73436274509803923</c:v>
+                  <c:v>0.73230392156862745</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.62186274509803918</c:v>
+                  <c:v>0.61980392156862751</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.7668627450980392</c:v>
+                  <c:v>0.76230392156862747</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.91186274509803933</c:v>
+                  <c:v>0.9123039215686275</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.67186274509803923</c:v>
+                  <c:v>0.6673039215686275</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.67686274509803912</c:v>
+                  <c:v>0.6723039215686275</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.82186274509803914</c:v>
+                  <c:v>0.81730392156862752</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.8918627450980392</c:v>
+                  <c:v>0.88980392156862753</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.88686274509803931</c:v>
+                  <c:v>0.88480392156862742</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.81186274509803913</c:v>
+                  <c:v>0.81230392156862741</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.9593627450980392</c:v>
+                  <c:v>0.95480392156862748</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.91186274509803922</c:v>
+                  <c:v>0.90980392156862755</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.92936274509803929</c:v>
+                  <c:v>0.92480392156862745</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.80686274509803924</c:v>
+                  <c:v>0.80480392156862757</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.93686274509803913</c:v>
+                  <c:v>0.93480392156862746</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>1.0068627450980392</c:v>
+                  <c:v>1.0073039215686275</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.88936274509803925</c:v>
+                  <c:v>0.88480392156862753</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.91436274509803916</c:v>
+                  <c:v>0.9123039215686275</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.94186274509803924</c:v>
+                  <c:v>0.93980392156862746</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1.0168627450980392</c:v>
+                  <c:v>1.0098039215686274</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.1618627450980392</c:v>
+                  <c:v>1.1598039215686275</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.2768627450980392</c:v>
+                  <c:v>1.2723039215686276</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>1.1868627450980391</c:v>
+                  <c:v>1.1823039215686275</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>1.1093627450980392</c:v>
+                  <c:v>1.1098039215686275</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>1.2368627450980392</c:v>
+                  <c:v>1.2348039215686275</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>1.2693627450980394</c:v>
+                  <c:v>1.2648039215686275</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.1093627450980392</c:v>
+                  <c:v>1.1098039215686275</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>1.1543627450980392</c:v>
+                  <c:v>1.1498039215686275</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.4323039215686275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2377,7 +2389,7 @@
         <c:axId val="908131144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.4"/>
+          <c:max val="1.6"/>
           <c:min val="-0.4"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3096,7 +3108,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{6F867366-653E-4250-A8EB-0CB45406409B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3107,7 +3119,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291053" cy="6065921"/>
+    <xdr:ext cx="9322594" cy="6084094"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -3433,10 +3445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA7858B-F286-4315-A53E-709AF528886E}">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D173"/>
+    <sheetView topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3446,11 +3458,11 @@
         <v>1850</v>
       </c>
       <c r="B1">
-        <f>A1+0.5</f>
+        <f t="shared" ref="B1:B32" si="0">A1+0.5</f>
         <v>1850.5</v>
       </c>
       <c r="D1">
-        <v>-5.3137254901960793E-2</v>
+        <v>-6.0196078431372521E-2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3458,11 +3470,11 @@
         <v>1851</v>
       </c>
       <c r="B2">
-        <f>A2+0.5</f>
+        <f t="shared" si="0"/>
         <v>1851.5</v>
       </c>
       <c r="D2">
-        <v>5.6862745098039201E-2</v>
+        <v>5.7303921568627479E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3470,11 +3482,11 @@
         <v>1852</v>
       </c>
       <c r="B3">
-        <f>A3+0.5</f>
+        <f t="shared" si="0"/>
         <v>1852.5</v>
       </c>
       <c r="D3">
-        <v>8.4362745098039205E-2</v>
+        <v>9.4803921568627464E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -3482,11 +3494,11 @@
         <v>1853</v>
       </c>
       <c r="B4">
-        <f>A4+0.5</f>
+        <f t="shared" si="0"/>
         <v>1853.5</v>
       </c>
       <c r="D4">
-        <v>4.9362745098039201E-2</v>
+        <v>5.2303921568627482E-2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -3494,14 +3506,15 @@
         <v>1854</v>
       </c>
       <c r="B5">
-        <f>A5+0.5</f>
+        <f t="shared" si="0"/>
         <v>1854.5</v>
       </c>
       <c r="C5">
-        <v>8.1127450980392028E-3</v>
+        <f t="shared" ref="C5:C34" si="1">AVERAGE(D1:D10)</f>
+        <v>1.6553921568627471E-2</v>
       </c>
       <c r="D5">
-        <v>4.9362745098039201E-2</v>
+        <v>6.2303921568627477E-2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -3509,14 +3522,15 @@
         <v>1855</v>
       </c>
       <c r="B6">
-        <f>A6+0.5</f>
+        <f t="shared" si="0"/>
         <v>1855.5</v>
       </c>
       <c r="C6">
-        <v>7.6127450980392032E-3</v>
+        <f t="shared" si="1"/>
+        <v>1.6553921568627478E-2</v>
       </c>
       <c r="D6">
-        <v>5.4362745098039206E-2</v>
+        <v>5.9803921568627474E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -3524,14 +3538,15 @@
         <v>1856</v>
       </c>
       <c r="B7">
-        <f>A7+0.5</f>
+        <f t="shared" si="0"/>
         <v>1856.5</v>
       </c>
       <c r="C7">
-        <v>-7.6372549019607956E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.3921568627471329E-5</v>
       </c>
       <c r="D7">
-        <v>-4.5637254901960786E-2</v>
+        <v>-2.0196078431372527E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3539,14 +3554,15 @@
         <v>1857</v>
       </c>
       <c r="B8">
-        <f>A8+0.5</f>
+        <f t="shared" si="0"/>
         <v>1857.5</v>
       </c>
       <c r="C8">
-        <v>-3.1887254901960795E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.7196078431372527E-2</v>
       </c>
       <c r="D8">
-        <v>-0.14313725490196078</v>
+        <v>-0.12269607843137252</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3554,14 +3570,15 @@
         <v>1858</v>
       </c>
       <c r="B9">
-        <f>A9+0.5</f>
+        <f t="shared" si="0"/>
         <v>1858.5</v>
       </c>
       <c r="C9">
-        <v>-3.7137254901960799E-2</v>
+        <f t="shared" si="1"/>
+        <v>-3.4446078431372526E-2</v>
       </c>
       <c r="D9">
-        <v>-3.8137254901960807E-2</v>
+        <v>-3.0196078431372522E-2</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -3569,14 +3586,15 @@
         <v>1859</v>
       </c>
       <c r="B10">
-        <f>A10+0.5</f>
+        <f t="shared" si="0"/>
         <v>1859.5</v>
       </c>
       <c r="C10">
-        <v>-4.6887254901960794E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.644607843137253E-2</v>
       </c>
       <c r="D10">
-        <v>6.6862745098039189E-2</v>
+        <v>7.2303921568627458E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -3584,14 +3602,15 @@
         <v>1860</v>
       </c>
       <c r="B11">
-        <f>A11+0.5</f>
+        <f t="shared" si="0"/>
         <v>1860.5</v>
       </c>
       <c r="C11">
-        <v>-4.8887254901960803E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.8696078431372525E-2</v>
       </c>
       <c r="D11">
-        <v>-5.8137254901960811E-2</v>
+        <v>-6.0196078431372535E-2</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3599,14 +3618,15 @@
         <v>1861</v>
       </c>
       <c r="B12">
-        <f>A12+0.5</f>
+        <f t="shared" si="0"/>
         <v>1861.5</v>
       </c>
       <c r="C12">
-        <v>-3.9887254901960795E-2</v>
+        <f t="shared" si="1"/>
+        <v>-4.2446078431372526E-2</v>
       </c>
       <c r="D12">
-        <v>-9.5637254901960789E-2</v>
+        <v>-0.10769607843137252</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3614,14 +3634,15 @@
         <v>1862</v>
       </c>
       <c r="B13">
-        <f>A13+0.5</f>
+        <f t="shared" si="0"/>
         <v>1862.5</v>
       </c>
       <c r="C13">
-        <v>-2.1137254901960795E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.6446078431372522E-2</v>
       </c>
       <c r="D13">
-        <v>-0.15813725490196079</v>
+        <v>-0.17769607843137253</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3629,14 +3650,15 @@
         <v>1863</v>
       </c>
       <c r="B14">
-        <f>A14+0.5</f>
+        <f t="shared" si="0"/>
         <v>1863.5</v>
       </c>
       <c r="C14">
-        <v>-1.1887254901960801E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.7946078431372522E-2</v>
       </c>
       <c r="D14">
-        <v>-3.1372549019608037E-3</v>
+        <v>-2.0196078431372541E-2</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -3644,14 +3666,15 @@
         <v>1864</v>
       </c>
       <c r="B15">
-        <f>A15+0.5</f>
+        <f t="shared" si="0"/>
         <v>1864.5</v>
       </c>
       <c r="C15">
-        <v>-1.2637254901960793E-2</v>
+        <f t="shared" si="1"/>
+        <v>-1.8196078431372532E-2</v>
       </c>
       <c r="D15">
-        <v>-4.8137254901960802E-2</v>
+        <v>-5.7696078431372519E-2</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3659,14 +3682,15 @@
         <v>1865</v>
       </c>
       <c r="B16">
-        <f>A16+0.5</f>
+        <f t="shared" si="0"/>
         <v>1865.5</v>
       </c>
       <c r="C16">
-        <v>-4.8872549019607966E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.0446078431372527E-2</v>
       </c>
       <c r="D16">
-        <v>3.4362745098039202E-2</v>
+        <v>3.7303921568627468E-2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -3674,14 +3698,15 @@
         <v>1866</v>
       </c>
       <c r="B17">
-        <f>A17+0.5</f>
+        <f t="shared" si="0"/>
         <v>1866.5</v>
       </c>
       <c r="C17">
-        <v>3.8627450980392025E-3</v>
+        <f t="shared" si="1"/>
+        <v>-1.9607843137252752E-4</v>
       </c>
       <c r="D17">
-        <v>4.4362745098039204E-2</v>
+        <v>4.230392156862748E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3689,14 +3714,15 @@
         <v>1867</v>
       </c>
       <c r="B18">
-        <f>A18+0.5</f>
+        <f t="shared" si="0"/>
         <v>1867.5</v>
       </c>
       <c r="C18">
-        <v>2.2112745098039205E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.9553921568627473E-2</v>
       </c>
       <c r="D18">
-        <v>4.4362745098039211E-2</v>
+        <v>3.7303921568627482E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3704,14 +3730,15 @@
         <v>1868</v>
       </c>
       <c r="B19">
-        <f>A19+0.5</f>
+        <f t="shared" si="0"/>
         <v>1868.5</v>
       </c>
       <c r="C19">
-        <v>2.41127450980392E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.3053921568627476E-2</v>
       </c>
       <c r="D19">
-        <v>5.4362745098039199E-2</v>
+        <v>5.4803921568627477E-2</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3719,14 +3746,15 @@
         <v>1869</v>
       </c>
       <c r="B20">
-        <f>A20+0.5</f>
+        <f t="shared" si="0"/>
         <v>1869.5</v>
       </c>
       <c r="C20">
-        <v>2.7112745098039202E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.6553921568627469E-2</v>
       </c>
       <c r="D20">
-        <v>5.9362745098039203E-2</v>
+        <v>6.9803921568627469E-2</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3734,14 +3762,15 @@
         <v>1870</v>
       </c>
       <c r="B21">
-        <f>A21+0.5</f>
+        <f t="shared" si="0"/>
         <v>1870.5</v>
       </c>
       <c r="C21">
-        <v>2.3112745098039206E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.1803921568627475E-2</v>
       </c>
       <c r="D21">
-        <v>1.9362745098039202E-2</v>
+        <v>1.7303921568627478E-2</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3749,14 +3778,15 @@
         <v>1871</v>
       </c>
       <c r="B22">
-        <f>A22+0.5</f>
+        <f t="shared" si="0"/>
         <v>1871.5</v>
       </c>
       <c r="C22">
-        <v>1.3862745098039203E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.2303921568627474E-2</v>
       </c>
       <c r="D22">
-        <v>-8.1372549019607943E-3</v>
+        <v>-5.1960784313725278E-3</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3764,14 +3794,15 @@
         <v>1872</v>
       </c>
       <c r="B23">
-        <f>A23+0.5</f>
+        <f t="shared" si="0"/>
         <v>1872.5</v>
       </c>
       <c r="C23">
-        <v>3.6362745098039204E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.7053921568627475E-2</v>
       </c>
       <c r="D23">
-        <v>2.4362745098039193E-2</v>
+        <v>1.9803921568627467E-2</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3779,14 +3810,15 @@
         <v>1873</v>
       </c>
       <c r="B24">
-        <f>A24+0.5</f>
+        <f t="shared" si="0"/>
         <v>1873.5</v>
       </c>
       <c r="C24">
-        <v>6.33627450980392E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.5553921568627466E-2</v>
       </c>
       <c r="D24">
-        <v>1.68627450980392E-2</v>
+        <v>1.4803921568627476E-2</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3794,14 +3826,15 @@
         <v>1874</v>
       </c>
       <c r="B25">
-        <f>A25+0.5</f>
+        <f t="shared" si="0"/>
         <v>1874.5</v>
       </c>
       <c r="C25">
-        <v>6.5362745098039202E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.5803921568627466E-2</v>
       </c>
       <c r="D25">
-        <v>-1.8137254901960803E-2</v>
+        <v>-2.2696078431372529E-2</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -3809,14 +3842,15 @@
         <v>1875</v>
       </c>
       <c r="B26">
-        <f>A26+0.5</f>
+        <f t="shared" si="0"/>
         <v>1875.5</v>
       </c>
       <c r="C26">
-        <v>6.6362745098039189E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.7053921568627467E-2</v>
       </c>
       <c r="D26">
-        <v>-5.6372549019608059E-3</v>
+        <v>-1.0196078431372532E-2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3824,14 +3858,15 @@
         <v>1876</v>
       </c>
       <c r="B27">
-        <f>A27+0.5</f>
+        <f t="shared" si="0"/>
         <v>1876.5</v>
       </c>
       <c r="C27">
-        <v>7.8112745098039199E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.9803921568627451E-2</v>
       </c>
       <c r="D27">
-        <v>-4.8137254901960802E-2</v>
+        <v>-5.2696078431372528E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -3839,14 +3874,15 @@
         <v>1877</v>
       </c>
       <c r="B28">
-        <f>A28+0.5</f>
+        <f t="shared" si="0"/>
         <v>1877.5</v>
       </c>
       <c r="C28">
-        <v>8.1612745098039202E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.2803921568627453E-2</v>
       </c>
       <c r="D28">
-        <v>0.2693627450980392</v>
+        <v>0.28480392156862744</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -3854,14 +3890,15 @@
         <v>1878</v>
       </c>
       <c r="B29">
-        <f>A29+0.5</f>
+        <f t="shared" si="0"/>
         <v>1878.5</v>
       </c>
       <c r="C29">
-        <v>7.96127450980392E-2</v>
+        <f t="shared" si="1"/>
+        <v>8.1803921568627452E-2</v>
       </c>
       <c r="D29">
-        <v>0.3243627450980392</v>
+        <v>0.33980392156862749</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3869,14 +3906,15 @@
         <v>1879</v>
       </c>
       <c r="B30">
-        <f>A30+0.5</f>
+        <f t="shared" si="0"/>
         <v>1879.5</v>
       </c>
       <c r="C30">
-        <v>6.786274509803919E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.1053921568627471E-2</v>
       </c>
       <c r="D30">
-        <v>7.93627450980392E-2</v>
+        <v>7.2303921568627472E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3884,14 +3922,15 @@
         <v>1880</v>
       </c>
       <c r="B31">
-        <f>A31+0.5</f>
+        <f t="shared" si="0"/>
         <v>1880.5</v>
       </c>
       <c r="C31">
-        <v>5.4862745098039199E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.9553921568627474E-2</v>
       </c>
       <c r="D31">
-        <v>2.9362745098039197E-2</v>
+        <v>2.9803921568627476E-2</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3899,14 +3938,15 @@
         <v>1881</v>
       </c>
       <c r="B32">
-        <f>A32+0.5</f>
+        <f t="shared" si="0"/>
         <v>1881.5</v>
       </c>
       <c r="C32">
-        <v>4.8112745098039207E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.2803921568627489E-2</v>
       </c>
       <c r="D32">
-        <v>0.1093627450980392</v>
+        <v>0.12230392156862746</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3914,14 +3954,15 @@
         <v>1882</v>
       </c>
       <c r="B33">
-        <f>A33+0.5</f>
+        <f t="shared" ref="B33:B64" si="2">A33+0.5</f>
         <v>1882.5</v>
       </c>
       <c r="C33">
-        <v>4.1127450980392001E-3</v>
+        <f t="shared" si="1"/>
+        <v>6.5539215686274853E-3</v>
       </c>
       <c r="D33">
-        <v>5.9362745098039203E-2</v>
+        <v>4.9803921568627472E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3929,14 +3970,15 @@
         <v>1883</v>
       </c>
       <c r="B34">
-        <f>A34+0.5</f>
+        <f t="shared" si="2"/>
         <v>1883.5</v>
       </c>
       <c r="C34">
-        <v>-2.9387254901960803E-2</v>
+        <f t="shared" si="1"/>
+        <v>-2.6696078431372526E-2</v>
       </c>
       <c r="D34">
-        <v>-3.1372549019608037E-3</v>
+        <v>4.8039215686274811E-3</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3944,14 +3986,14 @@
         <v>1884</v>
       </c>
       <c r="B35">
-        <f>A35+0.5</f>
+        <f t="shared" si="2"/>
         <v>1884.5</v>
       </c>
       <c r="C35">
         <v>-2.5637254901960803E-2</v>
       </c>
       <c r="D35">
-        <v>-0.1356372549019608</v>
+        <v>-0.13019607843137251</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3959,14 +4001,15 @@
         <v>1885</v>
       </c>
       <c r="B36">
-        <f>A36+0.5</f>
+        <f t="shared" si="2"/>
         <v>1885.5</v>
       </c>
       <c r="C36">
-        <v>-4.2387254901960804E-2</v>
+        <f t="shared" ref="C36:C67" si="3">AVERAGE(D32:D41)</f>
+        <v>-3.9696078431372524E-2</v>
       </c>
       <c r="D36">
-        <v>-0.1356372549019608</v>
+        <v>-0.12519607843137251</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3974,14 +4017,15 @@
         <v>1886</v>
       </c>
       <c r="B37">
-        <f>A37+0.5</f>
+        <f t="shared" si="2"/>
         <v>1886.5</v>
       </c>
       <c r="C37">
-        <v>-5.6887254901960803E-2</v>
+        <f t="shared" si="3"/>
+        <v>-5.6196078431372531E-2</v>
       </c>
       <c r="D37">
-        <v>-0.11563725490196079</v>
+        <v>-0.12019607843137252</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3989,14 +4033,15 @@
         <v>1887</v>
       </c>
       <c r="B38">
-        <f>A38+0.5</f>
+        <f t="shared" si="2"/>
         <v>1887.5</v>
       </c>
       <c r="C38">
-        <v>-7.4887254901960798E-2</v>
+        <f t="shared" si="3"/>
+        <v>-7.3196078431372519E-2</v>
       </c>
       <c r="D38">
-        <v>-0.1706372549019608</v>
+        <v>-0.17769607843137253</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -4004,14 +4049,15 @@
         <v>1888</v>
       </c>
       <c r="B39">
-        <f>A39+0.5</f>
+        <f t="shared" si="2"/>
         <v>1888.5</v>
       </c>
       <c r="C39">
-        <v>-8.6387254901960794E-2</v>
+        <f t="shared" si="3"/>
+        <v>-8.569607843137253E-2</v>
       </c>
       <c r="D39">
-        <v>-1.0637254901960796E-2</v>
+        <v>7.3039215686274833E-3</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -4019,14 +4065,15 @@
         <v>1889</v>
       </c>
       <c r="B40">
-        <f>A40+0.5</f>
+        <f t="shared" si="2"/>
         <v>1889.5</v>
       </c>
       <c r="C40">
-        <v>-8.2887254901960805E-2</v>
+        <f t="shared" si="3"/>
+        <v>-8.5446078431372516E-2</v>
       </c>
       <c r="D40">
-        <v>0.11686274509803921</v>
+        <v>0.12480392156862749</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -4034,14 +4081,15 @@
         <v>1890</v>
       </c>
       <c r="B41">
-        <f>A41+0.5</f>
+        <f t="shared" si="2"/>
         <v>1890.5</v>
       </c>
       <c r="C41">
-        <v>-7.4637254901960798E-2</v>
+        <f t="shared" si="3"/>
+        <v>-7.8946078431372524E-2</v>
       </c>
       <c r="D41">
-        <v>-0.1381372549019608</v>
+        <v>-0.15269607843137253</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -4049,14 +4097,15 @@
         <v>1891</v>
       </c>
       <c r="B42">
-        <f>A42+0.5</f>
+        <f t="shared" si="2"/>
         <v>1891.5</v>
       </c>
       <c r="C42">
-        <v>-5.4137254901960793E-2</v>
+        <f t="shared" si="3"/>
+        <v>-5.9196078431372534E-2</v>
       </c>
       <c r="D42">
-        <v>-3.5637254901960805E-2</v>
+        <v>-4.2696078431372533E-2</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -4064,14 +4113,15 @@
         <v>1892</v>
       </c>
       <c r="B43">
-        <f>A43+0.5</f>
+        <f t="shared" si="2"/>
         <v>1892.5</v>
       </c>
       <c r="C43">
-        <v>-2.7887254901960794E-2</v>
+        <f t="shared" si="3"/>
+        <v>-3.2696078431372524E-2</v>
       </c>
       <c r="D43">
-        <v>-0.1206372549019608</v>
+        <v>-0.12019607843137252</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -4079,14 +4129,15 @@
         <v>1893</v>
       </c>
       <c r="B44">
-        <f>A44+0.5</f>
+        <f t="shared" si="2"/>
         <v>1893.5</v>
       </c>
       <c r="C44">
-        <v>-3.78872549019608E-2</v>
+        <f t="shared" si="3"/>
+        <v>-4.5196078431372529E-2</v>
       </c>
       <c r="D44">
-        <v>-0.11813725490196079</v>
+        <v>-0.12019607843137252</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -4094,14 +4145,15 @@
         <v>1894</v>
       </c>
       <c r="B45">
-        <f>A45+0.5</f>
+        <f t="shared" si="2"/>
         <v>1894.5</v>
       </c>
       <c r="C45">
-        <v>-4.7637254901960795E-2</v>
+        <f t="shared" si="3"/>
+        <v>-5.5696078431372552E-2</v>
       </c>
       <c r="D45">
-        <v>-0.10063725490196081</v>
+        <v>-0.12769607843137254</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -4109,14 +4161,15 @@
         <v>1895</v>
       </c>
       <c r="B46">
-        <f>A46+0.5</f>
+        <f t="shared" si="2"/>
         <v>1895.5</v>
       </c>
       <c r="C46">
-        <v>-2.1387254901960799E-2</v>
+        <f t="shared" si="3"/>
+        <v>-2.7446078431372527E-2</v>
       </c>
       <c r="D46">
-        <v>-5.3137254901960793E-2</v>
+        <v>-6.0196078431372521E-2</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -4124,14 +4177,15 @@
         <v>1896</v>
       </c>
       <c r="B47">
-        <f>A47+0.5</f>
+        <f t="shared" si="2"/>
         <v>1896.5</v>
       </c>
       <c r="C47">
-        <v>-1.08872549019608E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.5946078431372527E-2</v>
       </c>
       <c r="D47">
-        <v>8.9362745098039195E-2</v>
+        <v>7.7303921568627476E-2</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -4139,14 +4193,15 @@
         <v>1897</v>
       </c>
       <c r="B48">
-        <f>A48+0.5</f>
+        <f t="shared" si="2"/>
         <v>1897.5</v>
       </c>
       <c r="C48">
-        <v>-5.8872549019608035E-3</v>
+        <f t="shared" si="3"/>
+        <v>-1.0696078431372526E-2</v>
       </c>
       <c r="D48">
-        <v>9.1862745098039197E-2</v>
+        <v>8.7303921568627471E-2</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -4154,14 +4209,15 @@
         <v>1898</v>
       </c>
       <c r="B49">
-        <f>A49+0.5</f>
+        <f t="shared" si="2"/>
         <v>1898.5</v>
       </c>
       <c r="C49">
-        <v>-1.0637254901960803E-2</v>
+        <f t="shared" si="3"/>
+        <v>-1.6196078431372531E-2</v>
       </c>
       <c r="D49">
-        <v>-0.11063725490196082</v>
+        <v>-0.11769607843137254</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -4169,14 +4225,15 @@
         <v>1899</v>
       </c>
       <c r="B50">
-        <f>A50+0.5</f>
+        <f t="shared" si="2"/>
         <v>1899.5</v>
       </c>
       <c r="C50">
-        <v>-2.4387254901960802E-2</v>
+        <f t="shared" si="3"/>
+        <v>-2.7196078431372527E-2</v>
       </c>
       <c r="D50">
-        <v>1.9362745098039209E-2</v>
+        <v>1.9803921568627474E-2</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -4184,14 +4241,15 @@
         <v>1900</v>
       </c>
       <c r="B51">
-        <f>A51+0.5</f>
+        <f t="shared" si="2"/>
         <v>1900.5</v>
       </c>
       <c r="C51">
-        <v>-2.3887254901960801E-2</v>
+        <f t="shared" si="3"/>
+        <v>-2.6446078431372526E-2</v>
       </c>
       <c r="D51">
-        <v>0.12436274509803918</v>
+        <v>0.12980392156862747</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -4199,14 +4257,15 @@
         <v>1901</v>
       </c>
       <c r="B52">
-        <f>A52+0.5</f>
+        <f t="shared" si="2"/>
         <v>1901.5</v>
       </c>
       <c r="C52">
-        <v>-3.0137254901960803E-2</v>
+        <f t="shared" si="3"/>
+        <v>-3.0696078431372526E-2</v>
       </c>
       <c r="D52">
-        <v>6.9362745098039205E-2</v>
+        <v>7.2303921568627499E-2</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -4214,14 +4273,15 @@
         <v>1902</v>
       </c>
       <c r="B53">
-        <f>A53+0.5</f>
+        <f t="shared" si="2"/>
         <v>1902.5</v>
       </c>
       <c r="C53">
-        <v>-5.2637254901960792E-2</v>
+        <f t="shared" si="3"/>
+        <v>-5.3196078431372529E-2</v>
       </c>
       <c r="D53">
-        <v>-7.0637254901960808E-2</v>
+        <v>-6.7696078431372528E-2</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -4229,14 +4289,15 @@
         <v>1903</v>
       </c>
       <c r="B54">
-        <f>A54+0.5</f>
+        <f t="shared" si="2"/>
         <v>1903.5</v>
       </c>
       <c r="C54">
-        <v>-5.8387254901960797E-2</v>
+        <f t="shared" si="3"/>
+        <v>-5.869607843137252E-2</v>
       </c>
       <c r="D54">
-        <v>-0.16563725490196082</v>
+        <v>-0.17519607843137255</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -4244,14 +4305,15 @@
         <v>1904</v>
       </c>
       <c r="B55">
-        <f>A55+0.5</f>
+        <f t="shared" si="2"/>
         <v>1904.5</v>
       </c>
       <c r="C55">
-        <v>-8.1887254901960818E-2</v>
+        <f t="shared" si="3"/>
+        <v>-8.2196078431372527E-2</v>
       </c>
       <c r="D55">
-        <v>-0.23813725490196078</v>
+        <v>-0.2376960784313725</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -4259,14 +4321,15 @@
         <v>1905</v>
       </c>
       <c r="B56">
-        <f>A56+0.5</f>
+        <f t="shared" si="2"/>
         <v>1905.5</v>
       </c>
       <c r="C56">
-        <v>-0.11263725490196082</v>
+        <f t="shared" si="3"/>
+        <v>-0.11294607843137253</v>
       </c>
       <c r="D56">
-        <v>-4.8137254901960802E-2</v>
+        <v>-5.2696078431372528E-2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -4274,14 +4337,15 @@
         <v>1906</v>
       </c>
       <c r="B57">
-        <f>A57+0.5</f>
+        <f t="shared" si="2"/>
         <v>1906.5</v>
       </c>
       <c r="C57">
-        <v>-0.1396372549019608</v>
+        <f t="shared" si="3"/>
+        <v>-0.13994607843137252</v>
       </c>
       <c r="D57">
-        <v>2.6862745098039195E-2</v>
+        <v>3.480392156862748E-2</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -4289,14 +4353,15 @@
         <v>1907</v>
       </c>
       <c r="B58">
-        <f>A58+0.5</f>
+        <f t="shared" si="2"/>
         <v>1907.5</v>
       </c>
       <c r="C58">
-        <v>-0.14563725490196081</v>
+        <f t="shared" si="3"/>
+        <v>-0.14619607843137253</v>
       </c>
       <c r="D58">
-        <v>-0.13313725490196079</v>
+        <v>-0.13769607843137252</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -4304,14 +4369,15 @@
         <v>1908</v>
       </c>
       <c r="B59">
-        <f>A59+0.5</f>
+        <f t="shared" si="2"/>
         <v>1908.5</v>
       </c>
       <c r="C59">
-        <v>-0.14063725490196083</v>
+        <f t="shared" si="3"/>
+        <v>-0.13994607843137249</v>
       </c>
       <c r="D59">
-        <v>-0.1681372549019608</v>
+        <v>-0.17269607843137252</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -4319,14 +4385,15 @@
         <v>1909</v>
       </c>
       <c r="B60">
-        <f>A60+0.5</f>
+        <f t="shared" si="2"/>
         <v>1909.5</v>
       </c>
       <c r="C60">
-        <v>-0.1091372549019608</v>
+        <f t="shared" si="3"/>
+        <v>-0.10819607843137251</v>
       </c>
       <c r="D60">
-        <v>-0.21563725490196081</v>
+        <v>-0.21519607843137253</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -4334,14 +4401,15 @@
         <v>1910</v>
       </c>
       <c r="B61">
-        <f>A61+0.5</f>
+        <f t="shared" si="2"/>
         <v>1910.5</v>
       </c>
       <c r="C61">
-        <v>-9.0387254901960798E-2</v>
+        <f t="shared" si="3"/>
+        <v>-8.8696078431372533E-2</v>
       </c>
       <c r="D61">
-        <v>-0.18313725490196081</v>
+        <v>-0.17769607843137253</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -4349,14 +4417,15 @@
         <v>1911</v>
       </c>
       <c r="B62">
-        <f>A62+0.5</f>
+        <f t="shared" si="2"/>
         <v>1911.5</v>
       </c>
       <c r="C62">
-        <v>-0.10138725490196081</v>
+        <f t="shared" si="3"/>
+        <v>-9.9946078431372515E-2</v>
       </c>
       <c r="D62">
-        <v>-0.2006372549019608</v>
+        <v>-0.19769607843137252</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -4364,14 +4433,15 @@
         <v>1912</v>
       </c>
       <c r="B63">
-        <f>A63+0.5</f>
+        <f t="shared" si="2"/>
         <v>1912.5</v>
       </c>
       <c r="C63">
-        <v>-0.10938725490196081</v>
+        <f t="shared" si="3"/>
+        <v>-0.10719607843137251</v>
       </c>
       <c r="D63">
-        <v>-0.13063725490196082</v>
+        <v>-0.13019607843137254</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -4379,14 +4449,15 @@
         <v>1913</v>
       </c>
       <c r="B64">
-        <f>A64+0.5</f>
+        <f t="shared" si="2"/>
         <v>1913.5</v>
       </c>
       <c r="C64">
-        <v>-9.8637254901960819E-2</v>
+        <f t="shared" si="3"/>
+        <v>-9.6696078431372526E-2</v>
       </c>
       <c r="D64">
-        <v>-0.11563725490196079</v>
+        <v>-0.11269607843137251</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -4394,14 +4465,15 @@
         <v>1914</v>
       </c>
       <c r="B65">
-        <f>A65+0.5</f>
+        <f t="shared" ref="B65:B96" si="4">A65+0.5</f>
         <v>1914.5</v>
       </c>
       <c r="C65">
-        <v>-7.71372549019608E-2</v>
+        <f t="shared" si="3"/>
+        <v>-7.4946078431372534E-2</v>
       </c>
       <c r="D65">
-        <v>7.6862745098039184E-2</v>
+        <v>7.9803921568627464E-2</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -4409,14 +4481,15 @@
         <v>1915</v>
       </c>
       <c r="B66">
-        <f>A66+0.5</f>
+        <f t="shared" si="4"/>
         <v>1915.5</v>
       </c>
       <c r="C66">
-        <v>-5.5137254901960794E-2</v>
+        <f t="shared" si="3"/>
+        <v>-5.2696078431372528E-2</v>
       </c>
       <c r="D66">
-        <v>0.1393627450980392</v>
+        <v>0.14230392156862748</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -4424,14 +4497,15 @@
         <v>1916</v>
       </c>
       <c r="B67">
-        <f>A67+0.5</f>
+        <f t="shared" si="4"/>
         <v>1916.5</v>
       </c>
       <c r="C67">
-        <v>-2.7137254901960804E-2</v>
+        <f t="shared" si="3"/>
+        <v>-2.4946078431372531E-2</v>
       </c>
       <c r="D67">
-        <v>-8.3137254901960791E-2</v>
+        <v>-7.7696078431372509E-2</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -4439,14 +4513,15 @@
         <v>1917</v>
       </c>
       <c r="B68">
-        <f>A68+0.5</f>
+        <f t="shared" si="4"/>
         <v>1917.5</v>
       </c>
       <c r="C68">
-        <v>-1.4637254901960805E-2</v>
+        <f t="shared" ref="C68:C99" si="5">AVERAGE(D64:D73)</f>
+        <v>-1.2196078431372524E-2</v>
       </c>
       <c r="D68">
-        <v>-0.21313725490196084</v>
+        <v>-0.21019607843137256</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -4454,14 +4529,15 @@
         <v>1918</v>
       </c>
       <c r="B69">
-        <f>A69+0.5</f>
+        <f t="shared" si="4"/>
         <v>1918.5</v>
       </c>
       <c r="C69">
-        <v>-1.1372549019608047E-3</v>
+        <f t="shared" si="5"/>
+        <v>1.0539215686274743E-3</v>
       </c>
       <c r="D69">
-        <v>-6.0637254901960785E-2</v>
+        <v>-6.7696078431372514E-2</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -4469,14 +4545,15 @@
         <v>1919</v>
       </c>
       <c r="B70">
-        <f>A70+0.5</f>
+        <f t="shared" si="4"/>
         <v>1919.5</v>
       </c>
       <c r="C70">
-        <v>-6.6372549019608051E-3</v>
+        <f t="shared" si="5"/>
+        <v>-4.6960784313725256E-3</v>
       </c>
       <c r="D70">
-        <v>-6.3725490196081536E-4</v>
+        <v>2.303921568627465E-3</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -4484,14 +4561,15 @@
         <v>1920</v>
       </c>
       <c r="B71">
-        <f>A71+0.5</f>
+        <f t="shared" si="4"/>
         <v>1920.5</v>
       </c>
       <c r="C71">
-        <v>-1.4387254901960805E-2</v>
+        <f t="shared" si="5"/>
+        <v>-1.2696078431372531E-2</v>
       </c>
       <c r="D71">
-        <v>3.6862745098039183E-2</v>
+        <v>4.4803921568627468E-2</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -4499,14 +4577,15 @@
         <v>1921</v>
       </c>
       <c r="B72">
-        <f>A72+0.5</f>
+        <f t="shared" si="4"/>
         <v>1921.5</v>
       </c>
       <c r="C72">
-        <v>1.3362745098039197E-2</v>
+        <f t="shared" si="5"/>
+        <v>1.4553921568627471E-2</v>
       </c>
       <c r="D72">
-        <v>7.9362745098039214E-2</v>
+        <v>7.9803921568627492E-2</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -4514,14 +4593,15 @@
         <v>1922</v>
       </c>
       <c r="B73">
-        <f>A73+0.5</f>
+        <f t="shared" si="4"/>
         <v>1922.5</v>
       </c>
       <c r="C73">
-        <v>4.3612745098039196E-2</v>
+        <f t="shared" si="5"/>
+        <v>4.4803921568627475E-2</v>
       </c>
       <c r="D73">
-        <v>-5.6372549019608198E-3</v>
+        <v>-2.6960784313725394E-3</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -4529,14 +4609,15 @@
         <v>1923</v>
       </c>
       <c r="B74">
-        <f>A74+0.5</f>
+        <f t="shared" si="4"/>
         <v>1923.5</v>
       </c>
       <c r="C74">
-        <v>5.9862745098039197E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.2053921568627469E-2</v>
       </c>
       <c r="D74">
-        <v>1.9362745098039189E-2</v>
+        <v>1.980392156862746E-2</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -4544,14 +4625,15 @@
         <v>1924</v>
       </c>
       <c r="B75">
-        <f>A75+0.5</f>
+        <f t="shared" si="4"/>
         <v>1924.5</v>
       </c>
       <c r="C75">
-        <v>5.3612745098039191E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.5553921568627485E-2</v>
       </c>
       <c r="D75">
-        <v>2.1862745098039191E-2</v>
+        <v>2.2303921568627469E-2</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -4559,14 +4641,15 @@
         <v>1925</v>
       </c>
       <c r="B76">
-        <f>A76+0.5</f>
+        <f t="shared" si="4"/>
         <v>1925.5</v>
       </c>
       <c r="C76">
-        <v>6.4612745098039201E-2</v>
+        <f t="shared" si="5"/>
+        <v>6.580392156862748E-2</v>
       </c>
       <c r="D76">
-        <v>6.1862745098039192E-2</v>
+        <v>6.2303921568627463E-2</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -4574,14 +4657,15 @@
         <v>1926</v>
       </c>
       <c r="B77">
-        <f>A77+0.5</f>
+        <f t="shared" si="4"/>
         <v>1926.5</v>
       </c>
       <c r="C77">
-        <v>7.7612745098039199E-2</v>
+        <f t="shared" si="5"/>
+        <v>7.9053921568627478E-2</v>
       </c>
       <c r="D77">
-        <v>0.19436274509803919</v>
+        <v>0.19480392156862747</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -4589,14 +4673,15 @@
         <v>1927</v>
       </c>
       <c r="B78">
-        <f>A78+0.5</f>
+        <f t="shared" si="4"/>
         <v>1927.5</v>
       </c>
       <c r="C78">
-        <v>9.43627450980392E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.5303921568627464E-2</v>
       </c>
       <c r="D78">
-        <v>8.9362745098039209E-2</v>
+        <v>9.2303921568627489E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -4604,14 +4689,15 @@
         <v>1928</v>
       </c>
       <c r="B79">
-        <f>A79+0.5</f>
+        <f t="shared" si="4"/>
         <v>1928.5</v>
       </c>
       <c r="C79">
-        <v>9.2112745098039212E-2</v>
+        <f t="shared" si="5"/>
+        <v>9.3053921568627476E-2</v>
       </c>
       <c r="D79">
-        <v>0.10186274509803921</v>
+        <v>0.10480392156862747</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -4619,14 +4705,15 @@
         <v>1929</v>
       </c>
       <c r="B80">
-        <f>A80+0.5</f>
+        <f t="shared" si="4"/>
         <v>1929.5</v>
       </c>
       <c r="C80">
-        <v>0.10436274509803919</v>
+        <f t="shared" si="5"/>
+        <v>0.10530392156862749</v>
       </c>
       <c r="D80">
-        <v>-6.3137254901960801E-2</v>
+        <v>-6.2696078431372537E-2</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -4634,14 +4721,15 @@
         <v>1930</v>
       </c>
       <c r="B81">
-        <f>A81+0.5</f>
+        <f t="shared" si="4"/>
         <v>1930.5</v>
       </c>
       <c r="C81">
-        <v>0.10786274509803921</v>
+        <f t="shared" si="5"/>
+        <v>0.10855392156862746</v>
       </c>
       <c r="D81">
-        <v>0.1468627450980392</v>
+        <v>0.14730392156862748</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -4649,14 +4737,15 @@
         <v>1931</v>
       </c>
       <c r="B82">
-        <f>A82+0.5</f>
+        <f t="shared" si="4"/>
         <v>1931.5</v>
       </c>
       <c r="C82">
-        <v>0.10286274509803921</v>
+        <f t="shared" si="5"/>
+        <v>0.10380392156862747</v>
       </c>
       <c r="D82">
-        <v>0.2093627450980392</v>
+        <v>0.21230392156862748</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -4664,14 +4753,15 @@
         <v>1932</v>
       </c>
       <c r="B83">
-        <f>A83+0.5</f>
+        <f t="shared" si="4"/>
         <v>1932.5</v>
       </c>
       <c r="C83">
-        <v>0.1233627450980392</v>
+        <f t="shared" si="5"/>
+        <v>0.12355392156862748</v>
       </c>
       <c r="D83">
-        <v>0.16186274509803922</v>
+        <v>0.15980392156862747</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -4679,14 +4769,15 @@
         <v>1933</v>
       </c>
       <c r="B84">
-        <f>A84+0.5</f>
+        <f t="shared" si="4"/>
         <v>1933.5</v>
       </c>
       <c r="C84">
-        <v>0.14261274509803917</v>
+        <f t="shared" si="5"/>
+        <v>0.14205392156862745</v>
       </c>
       <c r="D84">
-        <v>-3.1372549019608037E-3</v>
+        <v>-2.6960784313725256E-3</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -4694,14 +4785,15 @@
         <v>1934</v>
       </c>
       <c r="B85">
-        <f>A85+0.5</f>
+        <f t="shared" si="4"/>
         <v>1934.5</v>
       </c>
       <c r="C85">
-        <v>0.1768627450980392</v>
+        <f t="shared" si="5"/>
+        <v>0.17630392156862745</v>
       </c>
       <c r="D85">
-        <v>0.1443627450980392</v>
+        <v>0.14480392156862748</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -4709,14 +4801,15 @@
         <v>1935</v>
       </c>
       <c r="B86">
-        <f>A86+0.5</f>
+        <f t="shared" si="4"/>
         <v>1935.5</v>
       </c>
       <c r="C86">
-        <v>0.2008627450980392</v>
+        <f t="shared" si="5"/>
+        <v>0.2000539215686275</v>
       </c>
       <c r="D86">
-        <v>9.6862745098039202E-2</v>
+        <v>9.4803921568627478E-2</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -4724,14 +4817,15 @@
         <v>1936</v>
       </c>
       <c r="B87">
-        <f>A87+0.5</f>
+        <f t="shared" si="4"/>
         <v>1936.5</v>
       </c>
       <c r="C87">
-        <v>0.21661274509803916</v>
+        <f t="shared" si="5"/>
+        <v>0.21555392156862746</v>
       </c>
       <c r="D87">
-        <v>0.1443627450980392</v>
+        <v>0.14730392156862748</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -4739,14 +4833,15 @@
         <v>1937</v>
       </c>
       <c r="B88">
-        <f>A88+0.5</f>
+        <f t="shared" si="4"/>
         <v>1937.5</v>
       </c>
       <c r="C88">
-        <v>0.23336274509803917</v>
+        <f t="shared" si="5"/>
+        <v>0.23255392156862742</v>
       </c>
       <c r="D88">
-        <v>0.29436274509803917</v>
+        <v>0.28980392156862744</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -4754,14 +4849,15 @@
         <v>1938</v>
       </c>
       <c r="B89">
-        <f>A89+0.5</f>
+        <f t="shared" si="4"/>
         <v>1938.5</v>
       </c>
       <c r="C89">
-        <v>0.26936274509803926</v>
+        <f t="shared" si="5"/>
+        <v>0.26780392156862742</v>
       </c>
       <c r="D89">
-        <v>0.29436274509803917</v>
+        <v>0.2898039215686275</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -4769,14 +4865,15 @@
         <v>1939</v>
       </c>
       <c r="B90">
-        <f>A90+0.5</f>
+        <f t="shared" si="4"/>
         <v>1939.5</v>
       </c>
       <c r="C90">
-        <v>0.3031127450980392</v>
+        <f t="shared" si="5"/>
+        <v>0.30105392156862748</v>
       </c>
       <c r="D90">
-        <v>0.27936274509803921</v>
+        <v>0.27980392156862749</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -4784,14 +4881,15 @@
         <v>1940</v>
       </c>
       <c r="B91">
-        <f>A91+0.5</f>
+        <f t="shared" si="4"/>
         <v>1940.5</v>
       </c>
       <c r="C91">
-        <v>0.32911274509803917</v>
+        <f t="shared" si="5"/>
+        <v>0.3275539215686275</v>
       </c>
       <c r="D91">
-        <v>0.3868627450980392</v>
+        <v>0.38480392156862747</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -4799,14 +4897,15 @@
         <v>1941</v>
       </c>
       <c r="B92">
-        <f>A92+0.5</f>
+        <f t="shared" si="4"/>
         <v>1941.5</v>
       </c>
       <c r="C92">
-        <v>0.33511274509803918</v>
+        <f t="shared" si="5"/>
+        <v>0.33330392156862743</v>
       </c>
       <c r="D92">
-        <v>0.36686274509803918</v>
+        <v>0.36730392156862746</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -4814,14 +4913,15 @@
         <v>1942</v>
       </c>
       <c r="B93">
-        <f>A93+0.5</f>
+        <f t="shared" si="4"/>
         <v>1942.5</v>
       </c>
       <c r="C93">
-        <v>0.33061274509803923</v>
+        <f t="shared" si="5"/>
+        <v>0.32905392156862745</v>
       </c>
       <c r="D93">
-        <v>0.3293627450980392</v>
+        <v>0.32980392156862748</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -4829,14 +4929,15 @@
         <v>1943</v>
       </c>
       <c r="B94">
-        <f>A94+0.5</f>
+        <f t="shared" si="4"/>
         <v>1943.5</v>
       </c>
       <c r="C94">
-        <v>0.32036274509803925</v>
+        <f t="shared" si="5"/>
+        <v>0.3190539215686275</v>
       </c>
       <c r="D94">
-        <v>0.35686274509803922</v>
+        <v>0.34980392156862744</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -4844,14 +4945,15 @@
         <v>1944</v>
       </c>
       <c r="B95">
-        <f>A95+0.5</f>
+        <f t="shared" si="4"/>
         <v>1944.5</v>
       </c>
       <c r="C95">
-        <v>0.31061274509803927</v>
+        <f t="shared" si="5"/>
+        <v>0.30905392156862749</v>
       </c>
       <c r="D95">
-        <v>0.48186274509803928</v>
+        <v>0.47730392156862744</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -4859,14 +4961,15 @@
         <v>1945</v>
       </c>
       <c r="B96">
-        <f>A96+0.5</f>
+        <f t="shared" si="4"/>
         <v>1945.5</v>
       </c>
       <c r="C96">
-        <v>0.28261274509803919</v>
+        <f t="shared" si="5"/>
+        <v>0.28080392156862749</v>
       </c>
       <c r="D96">
-        <v>0.35686274509803917</v>
+        <v>0.35980392156862745</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -4874,14 +4977,15 @@
         <v>1946</v>
       </c>
       <c r="B97">
-        <f>A97+0.5</f>
+        <f t="shared" ref="B97:B128" si="6">A97+0.5</f>
         <v>1946.5</v>
       </c>
       <c r="C97">
-        <v>0.2718627450980392</v>
+        <f t="shared" si="5"/>
+        <v>0.26955392156862745</v>
       </c>
       <c r="D97">
-        <v>0.2043627450980392</v>
+        <v>0.20480392156862745</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -4889,14 +4993,15 @@
         <v>1947</v>
       </c>
       <c r="B98">
-        <f>A98+0.5</f>
+        <f t="shared" si="6"/>
         <v>1947.5</v>
       </c>
       <c r="C98">
-        <v>0.27261274509803923</v>
+        <f t="shared" si="5"/>
+        <v>0.26980392156862754</v>
       </c>
       <c r="D98">
-        <v>0.24936274509803921</v>
+        <v>0.24730392156862749</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -4904,14 +5009,15 @@
         <v>1948</v>
       </c>
       <c r="B99">
-        <f>A99+0.5</f>
+        <f t="shared" si="6"/>
         <v>1948.5</v>
       </c>
       <c r="C99">
-        <v>0.27711274509803918</v>
+        <f t="shared" si="5"/>
+        <v>0.27430392156862748</v>
       </c>
       <c r="D99">
-        <v>0.19186274509803922</v>
+        <v>0.18980392156862749</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -4919,14 +5025,15 @@
         <v>1949</v>
       </c>
       <c r="B100">
-        <f>A100+0.5</f>
+        <f t="shared" si="6"/>
         <v>1949.5</v>
       </c>
       <c r="C100">
-        <v>0.24936274509803918</v>
+        <f t="shared" ref="C100:C131" si="7">AVERAGE(D96:D105)</f>
+        <v>0.24630392156862749</v>
       </c>
       <c r="D100">
-        <v>0.18186274509803921</v>
+        <v>0.17980392156862748</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -4934,14 +5041,15 @@
         <v>1950</v>
       </c>
       <c r="B101">
-        <f>A101+0.5</f>
+        <f t="shared" si="6"/>
         <v>1950.5</v>
       </c>
       <c r="C101">
-        <v>0.22811274509803922</v>
+        <f t="shared" si="7"/>
+        <v>0.2248039215686275</v>
       </c>
       <c r="D101">
-        <v>0.1068627450980392</v>
+        <v>0.10230392156862747</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4949,14 +5057,15 @@
         <v>1951</v>
       </c>
       <c r="B102">
-        <f>A102+0.5</f>
+        <f t="shared" si="6"/>
         <v>1951.5</v>
       </c>
       <c r="C102">
-        <v>0.21586274509803921</v>
+        <f t="shared" si="7"/>
+        <v>0.21255392156862749</v>
       </c>
       <c r="D102">
-        <v>0.25936274509803919</v>
+        <v>0.25480392156862747</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4964,14 +5073,15 @@
         <v>1952</v>
       </c>
       <c r="B103">
-        <f>A103+0.5</f>
+        <f t="shared" si="6"/>
         <v>1952.5</v>
       </c>
       <c r="C103">
-        <v>0.22161274509803919</v>
+        <f t="shared" si="7"/>
+        <v>0.21830392156862746</v>
       </c>
       <c r="D103">
-        <v>0.33686274509803921</v>
+        <v>0.33230392156862748</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4979,14 +5089,15 @@
         <v>1953</v>
       </c>
       <c r="B104">
-        <f>A104+0.5</f>
+        <f t="shared" si="6"/>
         <v>1953.5</v>
       </c>
       <c r="C104">
-        <v>0.23436274509803917</v>
+        <f t="shared" si="7"/>
+        <v>0.23130392156862745</v>
       </c>
       <c r="D104">
-        <v>0.40186274509803921</v>
+        <v>0.39480392156862748</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4994,14 +5105,15 @@
         <v>1954</v>
       </c>
       <c r="B105">
-        <f>A105+0.5</f>
+        <f t="shared" si="6"/>
         <v>1954.5</v>
       </c>
       <c r="C105">
-        <v>0.24561274509803921</v>
+        <f t="shared" si="7"/>
+        <v>0.24280392156862746</v>
       </c>
       <c r="D105">
-        <v>0.2043627450980392</v>
+        <v>0.19730392156862747</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -5009,14 +5121,15 @@
         <v>1955</v>
       </c>
       <c r="B106">
-        <f>A106+0.5</f>
+        <f t="shared" si="6"/>
         <v>1955.5</v>
       </c>
       <c r="C106">
-        <v>0.25936274509803919</v>
+        <f t="shared" si="7"/>
+        <v>0.25630392156862747</v>
       </c>
       <c r="D106">
-        <v>0.1443627450980392</v>
+        <v>0.14480392156862748</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -5024,14 +5137,15 @@
         <v>1956</v>
       </c>
       <c r="B107">
-        <f>A107+0.5</f>
+        <f t="shared" si="6"/>
         <v>1956.5</v>
       </c>
       <c r="C107">
-        <v>0.26511274509803917</v>
+        <f t="shared" si="7"/>
+        <v>0.2625539215686275</v>
       </c>
       <c r="D107">
-        <v>8.1862745098039202E-2</v>
+        <v>8.2303921568627481E-2</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -5039,14 +5153,15 @@
         <v>1957</v>
       </c>
       <c r="B108">
-        <f>A108+0.5</f>
+        <f t="shared" si="6"/>
         <v>1957.5</v>
       </c>
       <c r="C108">
-        <v>0.25861274509803922</v>
+        <f t="shared" si="7"/>
+        <v>0.2565539215686275</v>
       </c>
       <c r="D108">
-        <v>0.30686274509803918</v>
+        <v>0.30480392156862746</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -5054,14 +5169,15 @@
         <v>1958</v>
       </c>
       <c r="B109">
-        <f>A109+0.5</f>
+        <f t="shared" si="6"/>
         <v>1958.5</v>
       </c>
       <c r="C109">
-        <v>0.24936274509803918</v>
+        <f t="shared" si="7"/>
+        <v>0.24730392156862746</v>
       </c>
       <c r="D109">
-        <v>0.31936274509803919</v>
+        <v>0.31980392156862747</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -5069,14 +5185,15 @@
         <v>1959</v>
       </c>
       <c r="B110">
-        <f>A110+0.5</f>
+        <f t="shared" si="6"/>
         <v>1959.5</v>
       </c>
       <c r="C110">
-        <v>0.2341127450980392</v>
+        <f t="shared" si="7"/>
+        <v>0.23205392156862747</v>
       </c>
       <c r="D110">
-        <v>0.29436274509803917</v>
+        <v>0.2948039215686275</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -5084,14 +5201,15 @@
         <v>1960</v>
       </c>
       <c r="B111">
-        <f>A111+0.5</f>
+        <f t="shared" si="6"/>
         <v>1960.5</v>
       </c>
       <c r="C111">
-        <v>0.23561274509803914</v>
+        <f t="shared" si="7"/>
+        <v>0.2330539215686275</v>
       </c>
       <c r="D111">
-        <v>0.24436274509803921</v>
+        <v>0.23730392156862748</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -5099,14 +5217,15 @@
         <v>1961</v>
       </c>
       <c r="B112">
-        <f>A112+0.5</f>
+        <f t="shared" si="6"/>
         <v>1961.5</v>
       </c>
       <c r="C112">
-        <v>0.24861274509803916</v>
+        <f t="shared" si="7"/>
+        <v>0.24555392156862749</v>
       </c>
       <c r="D112">
-        <v>0.31686274509803919</v>
+        <v>0.31730392156862747</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -5114,14 +5233,15 @@
         <v>1962</v>
       </c>
       <c r="B113">
-        <f>A113+0.5</f>
+        <f t="shared" si="6"/>
         <v>1962.5</v>
       </c>
       <c r="C113">
-        <v>0.24236274509803915</v>
+        <f t="shared" si="7"/>
+        <v>0.23905392156862751</v>
       </c>
       <c r="D113">
-        <v>0.27186274509803915</v>
+        <v>0.27230392156862748</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -5129,14 +5249,15 @@
         <v>1963</v>
       </c>
       <c r="B114">
-        <f>A114+0.5</f>
+        <f t="shared" si="6"/>
         <v>1963.5</v>
       </c>
       <c r="C114">
-        <v>0.22836274509803917</v>
+        <f t="shared" si="7"/>
+        <v>0.2250539215686275</v>
       </c>
       <c r="D114">
-        <v>0.30936274509803918</v>
+        <v>0.30230392156862751</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -5144,14 +5265,15 @@
         <v>1964</v>
       </c>
       <c r="B115">
-        <f>A115+0.5</f>
+        <f t="shared" si="6"/>
         <v>1964.5</v>
       </c>
       <c r="C115">
-        <v>0.2311127450980392</v>
+        <f t="shared" si="7"/>
+        <v>0.22755392156862747</v>
       </c>
       <c r="D115">
-        <v>5.1862745098039204E-2</v>
+        <v>4.4803921568627489E-2</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -5159,14 +5281,15 @@
         <v>1965</v>
       </c>
       <c r="B116">
-        <f>A116+0.5</f>
+        <f t="shared" si="6"/>
         <v>1965.5</v>
       </c>
       <c r="C116">
-        <v>0.23461274509803917</v>
+        <f t="shared" si="7"/>
+        <v>0.23155392156862745</v>
       </c>
       <c r="D116">
-        <v>0.15936274509803922</v>
+        <v>0.15480392156862749</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -5174,14 +5297,15 @@
         <v>1966</v>
       </c>
       <c r="B117">
-        <f>A117+0.5</f>
+        <f t="shared" si="6"/>
         <v>1966.5</v>
       </c>
       <c r="C117">
-        <v>0.21886274509803916</v>
+        <f t="shared" si="7"/>
+        <v>0.21555392156862746</v>
       </c>
       <c r="D117">
-        <v>0.21186274509803921</v>
+        <v>0.20730392156862745</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -5189,14 +5313,15 @@
         <v>1967</v>
       </c>
       <c r="B118">
-        <f>A118+0.5</f>
+        <f t="shared" si="6"/>
         <v>1967.5</v>
       </c>
       <c r="C118">
-        <v>0.21786274509803921</v>
+        <f t="shared" si="7"/>
+        <v>0.21505392156862752</v>
       </c>
       <c r="D118">
-        <v>0.24436274509803921</v>
+        <v>0.23980392156862748</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -5204,14 +5329,15 @@
         <v>1968</v>
       </c>
       <c r="B119">
-        <f>A119+0.5</f>
+        <f t="shared" si="6"/>
         <v>1968.5</v>
       </c>
       <c r="C119">
-        <v>0.22811274509803922</v>
+        <f t="shared" si="7"/>
+        <v>0.22555392156862747</v>
       </c>
       <c r="D119">
-        <v>0.17936274509803918</v>
+        <v>0.17980392156862748</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -5219,14 +5345,15 @@
         <v>1969</v>
       </c>
       <c r="B120">
-        <f>A120+0.5</f>
+        <f t="shared" si="6"/>
         <v>1969.5</v>
       </c>
       <c r="C120">
-        <v>0.24136274509803926</v>
+        <f t="shared" si="7"/>
+        <v>0.23930392156862745</v>
       </c>
       <c r="D120">
-        <v>0.32186274509803919</v>
+        <v>0.31980392156862747</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -5234,14 +5361,15 @@
         <v>1970</v>
       </c>
       <c r="B121">
-        <f>A121+0.5</f>
+        <f t="shared" si="6"/>
         <v>1970.5</v>
       </c>
       <c r="C121">
-        <v>0.25011274509803921</v>
+        <f t="shared" si="7"/>
+        <v>0.24805392156862743</v>
       </c>
       <c r="D121">
-        <v>0.27936274509803921</v>
+        <v>0.27730392156862749</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -5249,14 +5377,15 @@
         <v>1971</v>
       </c>
       <c r="B122">
-        <f>A122+0.5</f>
+        <f t="shared" si="6"/>
         <v>1971.5</v>
       </c>
       <c r="C122">
-        <v>0.24436274509803924</v>
+        <f t="shared" si="7"/>
+        <v>0.24205392156862748</v>
       </c>
       <c r="D122">
-        <v>0.15936274509803922</v>
+        <v>0.15730392156862749</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -5264,14 +5393,15 @@
         <v>1972</v>
       </c>
       <c r="B123">
-        <f>A123+0.5</f>
+        <f t="shared" si="6"/>
         <v>1972.5</v>
       </c>
       <c r="C123">
-        <v>0.2658627450980392</v>
+        <f t="shared" si="7"/>
+        <v>0.26380392156862753</v>
       </c>
       <c r="D123">
-        <v>0.2618627450980392</v>
+        <v>0.26730392156862748</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -5279,14 +5409,15 @@
         <v>1973</v>
       </c>
       <c r="B124">
-        <f>A124+0.5</f>
+        <f t="shared" si="6"/>
         <v>1973.5</v>
       </c>
       <c r="C124">
-        <v>0.28361274509803924</v>
+        <f t="shared" si="7"/>
+        <v>0.28105392156862752</v>
       </c>
       <c r="D124">
-        <v>0.41186274509803922</v>
+        <v>0.40730392156862749</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -5294,14 +5425,15 @@
         <v>1974</v>
       </c>
       <c r="B125">
-        <f>A125+0.5</f>
+        <f t="shared" si="6"/>
         <v>1974.5</v>
       </c>
       <c r="C125">
-        <v>0.29536274509803923</v>
+        <f t="shared" si="7"/>
+        <v>0.2923039215686275</v>
       </c>
       <c r="D125">
-        <v>0.18436274509803918</v>
+        <v>0.18230392156862749</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -5309,14 +5441,15 @@
         <v>1975</v>
       </c>
       <c r="B126">
-        <f>A126+0.5</f>
+        <f t="shared" si="6"/>
         <v>1975.5</v>
       </c>
       <c r="C126">
-        <v>0.32186274509803925</v>
+        <f t="shared" si="7"/>
+        <v>0.31930392156862752</v>
       </c>
       <c r="D126">
-        <v>0.24686274509803921</v>
+        <v>0.24230392156862748</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -5324,14 +5457,15 @@
         <v>1976</v>
       </c>
       <c r="B127">
-        <f>A127+0.5</f>
+        <f t="shared" si="6"/>
         <v>1976.5</v>
       </c>
       <c r="C127">
-        <v>0.36586274509803929</v>
+        <f t="shared" si="7"/>
+        <v>0.36330392156862745</v>
       </c>
       <c r="D127">
-        <v>0.15436274509803918</v>
+        <v>0.14730392156862748</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -5339,14 +5473,15 @@
         <v>1977</v>
       </c>
       <c r="B128">
-        <f>A128+0.5</f>
+        <f t="shared" si="6"/>
         <v>1977.5</v>
       </c>
       <c r="C128">
-        <v>0.37936274509803919</v>
+        <f t="shared" si="7"/>
+        <v>0.37555392156862744</v>
       </c>
       <c r="D128">
-        <v>0.4593627450980392</v>
+        <v>0.45730392156862743</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -5354,14 +5489,15 @@
         <v>1978</v>
       </c>
       <c r="B129">
-        <f>A129+0.5</f>
+        <f t="shared" ref="B129:B160" si="8">A129+0.5</f>
         <v>1978.5</v>
       </c>
       <c r="C129">
-        <v>0.39561274509803923</v>
+        <f t="shared" si="7"/>
+        <v>0.39205392156862745</v>
       </c>
       <c r="D129">
-        <v>0.35686274509803922</v>
+        <v>0.35230392156862744</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -5369,14 +5505,15 @@
         <v>1979</v>
       </c>
       <c r="B130">
-        <f>A130+0.5</f>
+        <f t="shared" si="8"/>
         <v>1979.5</v>
       </c>
       <c r="C130">
-        <v>0.41836274509803922</v>
+        <f t="shared" si="7"/>
+        <v>0.41455392156862747</v>
       </c>
       <c r="D130">
-        <v>0.43936274509803924</v>
+        <v>0.43230392156862751</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -5384,14 +5521,15 @@
         <v>1980</v>
       </c>
       <c r="B131">
-        <f>A131+0.5</f>
+        <f t="shared" si="8"/>
         <v>1980.5</v>
       </c>
       <c r="C131">
-        <v>0.43386274509803913</v>
+        <f t="shared" si="7"/>
+        <v>0.43005392156862737</v>
       </c>
       <c r="D131">
-        <v>0.54436274509803917</v>
+        <v>0.5473039215686275</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -5399,14 +5537,15 @@
         <v>1981</v>
       </c>
       <c r="B132">
-        <f>A132+0.5</f>
+        <f t="shared" si="8"/>
         <v>1981.5</v>
       </c>
       <c r="C132">
-        <v>0.46361274509803918</v>
+        <f t="shared" ref="C132:C163" si="9">AVERAGE(D128:D137)</f>
+        <v>0.46055392156862746</v>
       </c>
       <c r="D132">
-        <v>0.59936274509803922</v>
+        <v>0.59730392156862744</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -5414,14 +5553,15 @@
         <v>1982</v>
       </c>
       <c r="B133">
-        <f>A133+0.5</f>
+        <f t="shared" si="8"/>
         <v>1982.5</v>
       </c>
       <c r="C133">
-        <v>0.47611274509803919</v>
+        <f t="shared" si="9"/>
+        <v>0.47330392156862749</v>
       </c>
       <c r="D133">
-        <v>0.3968627450980392</v>
+        <v>0.38980392156862748</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -5429,14 +5569,15 @@
         <v>1983</v>
       </c>
       <c r="B134">
-        <f>A134+0.5</f>
+        <f t="shared" si="8"/>
         <v>1983.5</v>
       </c>
       <c r="C134">
-        <v>0.50436274509803913</v>
+        <f t="shared" si="9"/>
+        <v>0.50155392156862744</v>
       </c>
       <c r="D134">
-        <v>0.5743627450980392</v>
+        <v>0.57230392156862742</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -5444,14 +5585,15 @@
         <v>1984</v>
       </c>
       <c r="B135">
-        <f>A135+0.5</f>
+        <f t="shared" si="8"/>
         <v>1984.5</v>
       </c>
       <c r="C135">
-        <v>0.51336274509803914</v>
+        <f t="shared" si="9"/>
+        <v>0.51055392156862744</v>
       </c>
       <c r="D135">
-        <v>0.41186274509803922</v>
+        <v>0.40730392156862749</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -5459,14 +5601,15 @@
         <v>1985</v>
       </c>
       <c r="B136">
-        <f>A136+0.5</f>
+        <f t="shared" si="8"/>
         <v>1985.5</v>
       </c>
       <c r="C136">
-        <v>0.52911274509803918</v>
+        <f t="shared" si="9"/>
+        <v>0.52580392156862754</v>
       </c>
       <c r="D136">
-        <v>0.40186274509803921</v>
+        <v>0.39730392156862748</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -5474,14 +5617,15 @@
         <v>1986</v>
       </c>
       <c r="B137">
-        <f>A137+0.5</f>
+        <f t="shared" si="8"/>
         <v>1986.5</v>
       </c>
       <c r="C137">
-        <v>0.53736274509803927</v>
+        <f t="shared" si="9"/>
+        <v>0.53405392156862752</v>
       </c>
       <c r="D137">
-        <v>0.45186274509803914</v>
+        <v>0.45230392156862742</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -5489,14 +5633,15 @@
         <v>1987</v>
       </c>
       <c r="B138">
-        <f>A138+0.5</f>
+        <f t="shared" si="8"/>
         <v>1987.5</v>
       </c>
       <c r="C138">
-        <v>0.54536274509803917</v>
+        <f t="shared" si="9"/>
+        <v>0.54280392156862756</v>
       </c>
       <c r="D138">
-        <v>0.5843627450980392</v>
+        <v>0.58480392156862737</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -5504,14 +5649,15 @@
         <v>1988</v>
       </c>
       <c r="B139">
-        <f>A139+0.5</f>
+        <f t="shared" si="8"/>
         <v>1988.5</v>
       </c>
       <c r="C139">
-        <v>0.54086274509803922</v>
+        <f t="shared" si="9"/>
+        <v>0.5383039215686275</v>
       </c>
       <c r="D139">
-        <v>0.63936274509803925</v>
+        <v>0.63480392156862742</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -5519,14 +5665,15 @@
         <v>1989</v>
       </c>
       <c r="B140">
-        <f>A140+0.5</f>
+        <f t="shared" si="8"/>
         <v>1989.5</v>
       </c>
       <c r="C140">
-        <v>0.5581127450980391</v>
+        <f t="shared" si="9"/>
+        <v>0.55580392156862746</v>
       </c>
       <c r="D140">
-        <v>0.52936274509803916</v>
+        <v>0.52230392156862748</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -5534,14 +5681,15 @@
         <v>1990</v>
       </c>
       <c r="B141">
-        <f>A141+0.5</f>
+        <f t="shared" si="8"/>
         <v>1990.5</v>
       </c>
       <c r="C141">
-        <v>0.59136274509803921</v>
+        <f t="shared" si="9"/>
+        <v>0.58930392156862754</v>
       </c>
       <c r="D141">
-        <v>0.70186274509803925</v>
+        <v>0.69980392156862747</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -5549,14 +5697,15 @@
         <v>1991</v>
       </c>
       <c r="B142">
-        <f>A142+0.5</f>
+        <f t="shared" si="8"/>
         <v>1991.5</v>
       </c>
       <c r="C142">
-        <v>0.60836274509803911</v>
+        <f t="shared" si="9"/>
+        <v>0.60605392156862747</v>
       </c>
       <c r="D142">
-        <v>0.68186274509803924</v>
+        <v>0.67980392156862757</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -5564,14 +5713,15 @@
         <v>1992</v>
       </c>
       <c r="B143">
-        <f>A143+0.5</f>
+        <f t="shared" si="8"/>
         <v>1992.5</v>
       </c>
       <c r="C143">
-        <v>0.62661274509803921</v>
+        <f t="shared" si="9"/>
+        <v>0.62380392156862752</v>
       </c>
       <c r="D143">
-        <v>0.47686274509803916</v>
+        <v>0.47730392156862744</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -5579,14 +5729,15 @@
         <v>1993</v>
       </c>
       <c r="B144">
-        <f>A144+0.5</f>
+        <f t="shared" si="8"/>
         <v>1993.5</v>
       </c>
       <c r="C144">
-        <v>0.65386274509803921</v>
+        <f t="shared" si="9"/>
+        <v>0.65155392156862757</v>
       </c>
       <c r="D144">
-        <v>0.52936274509803916</v>
+        <v>0.52730392156862749</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -5594,14 +5745,15 @@
         <v>1994</v>
       </c>
       <c r="B145">
-        <f>A145+0.5</f>
+        <f t="shared" si="8"/>
         <v>1994.5</v>
       </c>
       <c r="C145">
-        <v>0.6681127450980392</v>
+        <f t="shared" si="9"/>
+        <v>0.66605392156862753</v>
       </c>
       <c r="D145">
-        <v>0.5843627450980392</v>
+        <v>0.58230392156862743</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -5609,14 +5761,15 @@
         <v>1995</v>
       </c>
       <c r="B146">
-        <f>A146+0.5</f>
+        <f t="shared" si="8"/>
         <v>1995.5</v>
       </c>
       <c r="C146">
-        <v>0.66561274509803925</v>
+        <f t="shared" si="9"/>
+        <v>0.66330392156862739</v>
       </c>
       <c r="D146">
-        <v>0.73436274509803923</v>
+        <v>0.73230392156862745</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -5624,14 +5777,15 @@
         <v>1996</v>
       </c>
       <c r="B147">
-        <f>A147+0.5</f>
+        <f t="shared" si="8"/>
         <v>1996.5</v>
       </c>
       <c r="C147">
-        <v>0.67961274509803915</v>
+        <f t="shared" si="9"/>
+        <v>0.67705392156862743</v>
       </c>
       <c r="D147">
-        <v>0.62186274509803918</v>
+        <v>0.61980392156862751</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -5639,14 +5793,15 @@
         <v>1997</v>
       </c>
       <c r="B148">
-        <f>A148+0.5</f>
+        <f t="shared" si="8"/>
         <v>1997.5</v>
       </c>
       <c r="C148">
-        <v>0.72111274509803913</v>
+        <f t="shared" si="9"/>
+        <v>0.71830392156862755</v>
       </c>
       <c r="D148">
-        <v>0.7668627450980392</v>
+        <v>0.76230392156862747</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -5654,14 +5809,15 @@
         <v>1998</v>
       </c>
       <c r="B149">
-        <f>A149+0.5</f>
+        <f t="shared" si="8"/>
         <v>1998.5</v>
       </c>
       <c r="C149">
-        <v>0.75686274509803908</v>
+        <f t="shared" si="9"/>
+        <v>0.75405392156862749</v>
       </c>
       <c r="D149">
-        <v>0.91186274509803933</v>
+        <v>0.9123039215686275</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -5669,14 +5825,15 @@
         <v>1999</v>
       </c>
       <c r="B150">
-        <f>A150+0.5</f>
+        <f t="shared" si="8"/>
         <v>1999.5</v>
       </c>
       <c r="C150">
-        <v>0.77961274509803913</v>
+        <f t="shared" si="9"/>
+        <v>0.7770539215686274</v>
       </c>
       <c r="D150">
-        <v>0.67186274509803923</v>
+        <v>0.6673039215686275</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -5684,14 +5841,15 @@
         <v>2000</v>
       </c>
       <c r="B151">
-        <f>A151+0.5</f>
+        <f t="shared" si="8"/>
         <v>2000.5</v>
       </c>
       <c r="C151">
-        <v>0.80211274509803909</v>
+        <f t="shared" si="9"/>
+        <v>0.79930392156862751</v>
       </c>
       <c r="D151">
-        <v>0.67686274509803912</v>
+        <v>0.6723039215686275</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -5699,14 +5857,15 @@
         <v>2001</v>
       </c>
       <c r="B152">
-        <f>A152+0.5</f>
+        <f t="shared" si="8"/>
         <v>2001.5</v>
       </c>
       <c r="C152">
-        <v>0.83111274509803912</v>
+        <f t="shared" si="9"/>
+        <v>0.82830392156862742</v>
       </c>
       <c r="D152">
-        <v>0.82186274509803914</v>
+        <v>0.81730392156862752</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -5714,14 +5873,15 @@
         <v>2002</v>
       </c>
       <c r="B153">
-        <f>A153+0.5</f>
+        <f t="shared" si="8"/>
         <v>2002.5</v>
       </c>
       <c r="C153">
-        <v>0.84736274509803911</v>
+        <f t="shared" si="9"/>
+        <v>0.84455392156862741</v>
       </c>
       <c r="D153">
-        <v>0.8918627450980392</v>
+        <v>0.88980392156862753</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -5729,14 +5889,15 @@
         <v>2003</v>
       </c>
       <c r="B154">
-        <f>A154+0.5</f>
+        <f t="shared" si="8"/>
         <v>2003.5</v>
       </c>
       <c r="C154">
-        <v>0.83686274509803926</v>
+        <f t="shared" si="9"/>
+        <v>0.83380392156862759</v>
       </c>
       <c r="D154">
-        <v>0.88686274509803931</v>
+        <v>0.88480392156862742</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -5744,14 +5905,15 @@
         <v>2004</v>
       </c>
       <c r="B155">
-        <f>A155+0.5</f>
+        <f t="shared" si="8"/>
         <v>2004.5</v>
       </c>
       <c r="C155">
-        <v>0.86336274509803912</v>
+        <f t="shared" si="9"/>
+        <v>0.86055392156862764</v>
       </c>
       <c r="D155">
-        <v>0.81186274509803913</v>
+        <v>0.81230392156862741</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -5759,14 +5921,15 @@
         <v>2005</v>
       </c>
       <c r="B156">
-        <f>A156+0.5</f>
+        <f t="shared" si="8"/>
         <v>2005.5</v>
       </c>
       <c r="C156">
-        <v>0.89636274509803915</v>
+        <f t="shared" si="9"/>
+        <v>0.89405392156862751</v>
       </c>
       <c r="D156">
-        <v>0.9593627450980392</v>
+        <v>0.95480392156862748</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -5774,14 +5937,15 @@
         <v>2006</v>
       </c>
       <c r="B157">
-        <f>A157+0.5</f>
+        <f t="shared" si="8"/>
         <v>2006.5</v>
       </c>
       <c r="C157">
-        <v>0.90311274509803907</v>
+        <f t="shared" si="9"/>
+        <v>0.90080392156862743</v>
       </c>
       <c r="D157">
-        <v>0.91186274509803922</v>
+        <v>0.90980392156862755</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -5789,14 +5953,15 @@
         <v>2007</v>
       </c>
       <c r="B158">
-        <f>A158+0.5</f>
+        <f t="shared" si="8"/>
         <v>2007.5</v>
       </c>
       <c r="C158">
-        <v>0.90536274509803916</v>
+        <f t="shared" si="9"/>
+        <v>0.90305392156862729</v>
       </c>
       <c r="D158">
-        <v>0.92936274509803929</v>
+        <v>0.92480392156862745</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -5804,14 +5969,15 @@
         <v>2008</v>
       </c>
       <c r="B159">
-        <f>A159+0.5</f>
+        <f t="shared" si="8"/>
         <v>2008.5</v>
       </c>
       <c r="C159">
-        <v>0.91086274509803911</v>
+        <f t="shared" si="9"/>
+        <v>0.90855392156862735</v>
       </c>
       <c r="D159">
-        <v>0.80686274509803924</v>
+        <v>0.80480392156862757</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -5819,14 +5985,15 @@
         <v>2009</v>
       </c>
       <c r="B160">
-        <f>A160+0.5</f>
+        <f t="shared" si="8"/>
         <v>2009.5</v>
       </c>
       <c r="C160">
-        <v>0.93136274509803929</v>
+        <f t="shared" si="9"/>
+        <v>0.92830392156862751</v>
       </c>
       <c r="D160">
-        <v>0.93686274509803913</v>
+        <v>0.93480392156862746</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -5834,14 +6001,15 @@
         <v>2010</v>
       </c>
       <c r="B161">
-        <f>A161+0.5</f>
+        <f t="shared" ref="B161:B173" si="10">A161+0.5</f>
         <v>2010.5</v>
       </c>
       <c r="C161">
-        <v>0.95161274509803939</v>
+        <f t="shared" si="9"/>
+        <v>0.94880392156862747</v>
       </c>
       <c r="D161">
-        <v>1.0068627450980392</v>
+        <v>1.0073039215686275</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -5849,14 +6017,15 @@
         <v>2011</v>
       </c>
       <c r="B162">
-        <f>A162+0.5</f>
+        <f t="shared" si="10"/>
         <v>2011.5</v>
       </c>
       <c r="C162">
-        <v>0.98811274509803915</v>
+        <f t="shared" si="9"/>
+        <v>0.98505392156862759</v>
       </c>
       <c r="D162">
-        <v>0.88936274509803925</v>
+        <v>0.88480392156862753</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -5864,14 +6033,15 @@
         <v>2012</v>
       </c>
       <c r="B163">
-        <f>A163+0.5</f>
+        <f t="shared" si="10"/>
         <v>2012.5</v>
       </c>
       <c r="C163">
-        <v>1.0138627450980393</v>
+        <f t="shared" si="9"/>
+        <v>1.0108039215686273</v>
       </c>
       <c r="D163">
-        <v>0.91436274509803916</v>
+        <v>0.9123039215686275</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -5879,14 +6049,15 @@
         <v>2013</v>
       </c>
       <c r="B164">
-        <f>A164+0.5</f>
+        <f t="shared" si="10"/>
         <v>2013.5</v>
       </c>
       <c r="C164">
-        <v>1.0441127450980392</v>
+        <f t="shared" ref="C164:C195" si="11">AVERAGE(D160:D169)</f>
+        <v>1.0413039215686273</v>
       </c>
       <c r="D164">
-        <v>0.94186274509803924</v>
+        <v>0.93980392156862746</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -5894,14 +6065,15 @@
         <v>2014</v>
       </c>
       <c r="B165">
-        <f>A165+0.5</f>
+        <f t="shared" si="10"/>
         <v>2014.5</v>
       </c>
       <c r="C165">
-        <v>1.0741127450980392</v>
+        <f t="shared" si="11"/>
+        <v>1.0713039215686275</v>
       </c>
       <c r="D165">
-        <v>1.0168627450980392</v>
+        <v>1.0098039215686274</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -5909,14 +6081,15 @@
         <v>2015</v>
       </c>
       <c r="B166">
-        <f>A166+0.5</f>
+        <f t="shared" si="10"/>
         <v>2015.5</v>
       </c>
       <c r="C166">
-        <v>1.1003627450980391</v>
+        <f t="shared" si="11"/>
+        <v>1.0970539215686277</v>
       </c>
       <c r="D166">
-        <v>1.1618627450980392</v>
+        <v>1.1598039215686275</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -5924,14 +6097,15 @@
         <v>2016</v>
       </c>
       <c r="B167">
-        <f>A167+0.5</f>
+        <f t="shared" si="10"/>
         <v>2016.5</v>
       </c>
       <c r="C167">
-        <v>1.1223627450980393</v>
+        <f t="shared" si="11"/>
+        <v>1.1195539215686274</v>
       </c>
       <c r="D167">
-        <v>1.2768627450980392</v>
+        <v>1.2723039215686276</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -5939,14 +6113,15 @@
         <v>2017</v>
       </c>
       <c r="B168">
-        <f>A168+0.5</f>
+        <f t="shared" si="10"/>
         <v>2017.5</v>
       </c>
       <c r="C168">
-        <v>1.1463627450980391</v>
+        <f t="shared" si="11"/>
+        <v>1.1433039215686276</v>
       </c>
       <c r="D168">
-        <v>1.1868627450980391</v>
+        <v>1.1823039215686275</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -5954,11 +6129,15 @@
         <v>2018</v>
       </c>
       <c r="B169">
-        <f>A169+0.5</f>
+        <f t="shared" si="10"/>
         <v>2018.5</v>
       </c>
+      <c r="C169">
+        <f t="shared" si="11"/>
+        <v>1.1925539215686274</v>
+      </c>
       <c r="D169">
-        <v>1.1093627450980392</v>
+        <v>1.1098039215686275</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -5966,11 +6145,11 @@
         <v>2019</v>
       </c>
       <c r="B170">
-        <f>A170+0.5</f>
+        <f t="shared" si="10"/>
         <v>2019.5</v>
       </c>
       <c r="D170">
-        <v>1.2368627450980392</v>
+        <v>1.2348039215686275</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -5978,11 +6157,11 @@
         <v>2020</v>
       </c>
       <c r="B171">
-        <f>A171+0.5</f>
+        <f t="shared" si="10"/>
         <v>2020.5</v>
       </c>
       <c r="D171">
-        <v>1.2693627450980394</v>
+        <v>1.2648039215686275</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -5990,11 +6169,11 @@
         <v>2021</v>
       </c>
       <c r="B172">
-        <f>A172+0.5</f>
+        <f t="shared" si="10"/>
         <v>2021.5</v>
       </c>
       <c r="D172">
-        <v>1.1093627450980392</v>
+        <v>1.1098039215686275</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -6002,11 +6181,22 @@
         <v>2022</v>
       </c>
       <c r="B173">
-        <f>A173+0.5</f>
+        <f t="shared" si="10"/>
         <v>2022.5</v>
       </c>
       <c r="D173">
-        <v>1.1543627450980392</v>
+        <v>1.1498039215686275</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>2023</v>
+      </c>
+      <c r="B174">
+        <v>2023.5</v>
+      </c>
+      <c r="D174">
+        <v>1.4323039215686275</v>
       </c>
     </row>
   </sheetData>
